--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1505,7 +1505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Svc</c:v>
+                  <c:v>svc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1570,7 +1570,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rfc</c:v>
+                  <c:v>rfc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1694,6 +1694,7 @@
         <c:axId val="226271664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4567,7 +4568,7 @@
   <dimension ref="A1:AO459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:W3"/>
+      <selection activeCell="J12" sqref="J12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +4777,7 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="U4">
         <v>0.87</v>
@@ -4859,7 +4860,7 @@
         <v>0.75</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U5">
         <v>0.88</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="1050" tabRatio="503" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="390" tabRatio="503" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="2" r:id="rId1"/>
-    <sheet name="1119-224829_svc" sheetId="1" r:id="rId2"/>
+    <sheet name="eval" sheetId="1" r:id="rId2"/>
     <sheet name="scaling methods" sheetId="3" r:id="rId3"/>
     <sheet name="computation cost" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="108">
   <si>
     <t xml:space="preserve">Kullu </t>
   </si>
@@ -295,11 +295,77 @@
   <si>
     <t xml:space="preserve">in total </t>
   </si>
+  <si>
+    <t>1119-224829_svc</t>
+  </si>
+  <si>
+    <t>kullu</t>
+  </si>
+  <si>
+    <t>mandi</t>
+  </si>
+  <si>
+    <t>shimla</t>
+  </si>
+  <si>
+    <t>cropland_20220105-135132</t>
+  </si>
+  <si>
+    <t>w-avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of pixels </t>
+  </si>
+  <si>
+    <t>all spatial</t>
+  </si>
+  <si>
+    <t>cv_test_score</t>
+  </si>
+  <si>
+    <t>NDVI spatial</t>
+  </si>
+  <si>
+    <t>no spatial</t>
+  </si>
+  <si>
+    <t>k300 + SCL</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>QI data</t>
+  </si>
+  <si>
+    <t>20220105-135132</t>
+  </si>
+  <si>
+    <t>20220110-154830</t>
+  </si>
+  <si>
+    <t>20220110-175849</t>
+  </si>
+  <si>
+    <t>20220109-233002</t>
+  </si>
+  <si>
+    <t>k_tune (75)</t>
+  </si>
+  <si>
+    <t>k_tune (50)</t>
+  </si>
+  <si>
+    <t>20220111-094108</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -753,15 +819,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,19 +831,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,15 +864,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,6 +881,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -854,6 +920,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3302,67 +3375,67 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="4"/>
-    <col min="9" max="9" width="15.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="4"/>
+    <col min="4" max="4" width="10.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="15.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="92"/>
+      <c r="E2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="92"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="92">
         <f>D3+D4</f>
         <v>54724</v>
       </c>
       <c r="D3" s="69">
         <v>5430</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="93">
         <f>F3+F4</f>
         <v>0.52283410402415254</v>
       </c>
@@ -3372,27 +3445,27 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="92"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="88"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="69">
         <v>49294</v>
       </c>
-      <c r="E4" s="90"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="70">
         <f>D4/(C5+C3)</f>
         <v>0.47095578400275157</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="69">
         <f>D5</f>
         <v>49944</v>
@@ -3409,11 +3482,11 @@
         <v>0.47716589597584746</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="4">
         <f>C3+C5</f>
         <v>104668</v>
@@ -3426,75 +3499,75 @@
         <v>104668</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="88" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="92"/>
+      <c r="G10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88" t="s">
+      <c r="J10" s="92"/>
+      <c r="K10" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88" t="s">
+      <c r="L10" s="92"/>
+      <c r="M10" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="88"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="N10" s="92"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="92" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="92">
         <f>D11+D12</f>
         <v>6548</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="93">
         <f>F11+F12</f>
         <v>0.47363471971066906</v>
       </c>
@@ -3502,14 +3575,14 @@
         <f>D11/(C$11+C$13)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="92">
         <f>H11+H12</f>
         <v>1198</v>
       </c>
       <c r="H11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="93">
         <f>J11+J12</f>
         <v>0.60966921119592876</v>
       </c>
@@ -3517,14 +3590,14 @@
         <f>H11/(G$11+G$13)</f>
         <v>0.2544529262086514</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="92">
         <f>L11+L12</f>
         <v>4642</v>
       </c>
       <c r="L11" s="2">
         <v>2530</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="93">
         <f>N11+N12</f>
         <v>0.4795454545454545</v>
       </c>
@@ -3533,44 +3606,44 @@
         <v>0.26136363636363635</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="92"/>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="88"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="2">
         <v>6548</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="6">
         <f>D12/(C$11+C$13)</f>
         <v>0.47363471971066906</v>
       </c>
-      <c r="G12" s="88"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="2">
         <v>698</v>
       </c>
-      <c r="I12" s="90"/>
+      <c r="I12" s="93"/>
       <c r="J12" s="6">
         <f t="shared" ref="J12:J13" si="0">H12/(G$11+G$13)</f>
         <v>0.35521628498727736</v>
       </c>
-      <c r="K12" s="88"/>
+      <c r="K12" s="92"/>
       <c r="L12" s="2">
         <v>2112</v>
       </c>
-      <c r="M12" s="90"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="6">
         <f t="shared" ref="N12:N13" si="1">L12/(K$11+K$13)</f>
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="2">
         <f>D13</f>
         <v>7277</v>
@@ -3583,7 +3656,7 @@
         <v>0.52636528028933094</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" ref="F12:F13" si="2">D13/(C$11+C$13)</f>
+        <f t="shared" ref="F13" si="2">D13/(C$11+C$13)</f>
         <v>0.52636528028933094</v>
       </c>
       <c r="G13" s="2">
@@ -3617,7 +3690,7 @@
         <v>0.5204545454545455</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3633,43 +3706,43 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="91"/>
+      <c r="E15" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94" t="s">
+      <c r="F15" s="91"/>
+      <c r="G15" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="94"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="91" t="s">
+      <c r="J15" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94" t="s">
+      <c r="L15" s="91"/>
+      <c r="M15" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94" t="s">
+      <c r="N15" s="91"/>
+      <c r="O15" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="94"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="91"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="92"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
@@ -3689,7 +3762,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="92"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="10" t="s">
         <v>21</v>
       </c>
@@ -3709,7 +3782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
@@ -3765,7 +3838,7 @@
         <v>0.4795454545454545</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
@@ -3821,7 +3894,7 @@
         <v>0.5204545454545455</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
@@ -3853,31 +3926,31 @@
         <v>84</v>
       </c>
       <c r="K19" s="4">
-        <f>K17+K18</f>
+        <f t="shared" ref="K19:P19" si="3">K17+K18</f>
         <v>13825</v>
       </c>
       <c r="L19" s="7">
-        <f>L17+L18</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M19" s="4">
-        <f>M17+M18</f>
+        <f t="shared" si="3"/>
         <v>1965</v>
       </c>
       <c r="N19" s="7">
-        <f>N17+N18</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19" s="4">
-        <f>O17+O18</f>
+        <f t="shared" si="3"/>
         <v>9680</v>
       </c>
       <c r="P19" s="7">
-        <f>P17+P18</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
@@ -3906,31 +3979,31 @@
         <v>0.5204545454545455</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88" t="s">
+      <c r="D32" s="92"/>
+      <c r="E32" s="92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="88"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="94"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="92"/>
       <c r="H33" s="4" t="s">
         <v>23</v>
       </c>
@@ -3944,23 +4017,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="88" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="88" t="s">
+      <c r="B34" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="92">
         <f>C35+D35</f>
         <v>6548</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="2">
         <f>E35</f>
         <v>7277</v>
       </c>
-      <c r="H34" s="88" t="s">
+      <c r="H34" s="92" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -3975,9 +4048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="2">
         <v>0</v>
       </c>
@@ -3987,7 +4060,7 @@
       <c r="E35" s="2">
         <v>7277</v>
       </c>
-      <c r="H35" s="88"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="4" t="s">
         <v>19</v>
       </c>
@@ -4000,21 +4073,21 @@
         <v>0.47363471971066906</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="90">
+      <c r="C36" s="93">
         <f>C37+D37</f>
         <v>0.47363471971066906</v>
       </c>
-      <c r="D36" s="90"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="6">
         <f>E37</f>
         <v>0.52636528028933094</v>
       </c>
-      <c r="H36" s="88"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="4" t="s">
         <v>8</v>
       </c>
@@ -4027,9 +4100,9 @@
         <v>0.47363471971066906</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="6">
         <f>C35/($C34+$E34)</f>
         <v>0</v>
@@ -4042,7 +4115,7 @@
         <f>E35/($C34+$E34)</f>
         <v>0.52636528028933094</v>
       </c>
-      <c r="H37" s="88"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="4" t="s">
         <v>9</v>
       </c>
@@ -4055,23 +4128,23 @@
         <v>0.52636528028933094</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="88" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="88">
+      <c r="C38" s="92">
         <f>C39+D39</f>
         <v>1198</v>
       </c>
-      <c r="D38" s="88"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="2">
         <f>E39</f>
         <v>767</v>
       </c>
-      <c r="H38" s="88" t="s">
+      <c r="H38" s="92" t="s">
         <v>24</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -4086,9 +4159,9 @@
         <v>0.2544529262086514</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="2">
         <v>500</v>
       </c>
@@ -4098,7 +4171,7 @@
       <c r="E39" s="2">
         <v>767</v>
       </c>
-      <c r="H39" s="88"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="4" t="s">
         <v>19</v>
       </c>
@@ -4111,21 +4184,21 @@
         <v>0.35521628498727736</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="92"/>
+      <c r="B40" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="90">
+      <c r="C40" s="93">
         <f>C41+D41</f>
         <v>0.60966921119592876</v>
       </c>
-      <c r="D40" s="90"/>
+      <c r="D40" s="93"/>
       <c r="E40" s="6">
         <f>E41</f>
         <v>0.39033078880407124</v>
       </c>
-      <c r="H40" s="88"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="4" t="s">
         <v>8</v>
       </c>
@@ -4138,9 +4211,9 @@
         <v>0.60966921119592876</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="6">
         <f>C39/($C38+$E38)</f>
         <v>0.2544529262086514</v>
@@ -4153,7 +4226,7 @@
         <f>E39/($C38+$E38)</f>
         <v>0.39033078880407124</v>
       </c>
-      <c r="H41" s="88"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="4" t="s">
         <v>9</v>
       </c>
@@ -4166,23 +4239,23 @@
         <v>0.39033078880407124</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="88" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="88">
+      <c r="C42" s="92">
         <f>C43+D43</f>
         <v>4642</v>
       </c>
-      <c r="D42" s="88"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="2">
         <f>E43</f>
         <v>5038</v>
       </c>
-      <c r="H42" s="88" t="s">
+      <c r="H42" s="92" t="s">
         <v>25</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -4197,9 +4270,9 @@
         <v>0.26136363636363635</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="2">
         <v>2530</v>
       </c>
@@ -4209,7 +4282,7 @@
       <c r="E43" s="2">
         <v>5038</v>
       </c>
-      <c r="H43" s="88"/>
+      <c r="H43" s="92"/>
       <c r="I43" s="4" t="s">
         <v>19</v>
       </c>
@@ -4222,21 +4295,21 @@
         <v>0.21818181818181817</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="92"/>
+      <c r="B44" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="90">
+      <c r="C44" s="93">
         <f>C45+D45</f>
         <v>0.4795454545454545</v>
       </c>
-      <c r="D44" s="90"/>
+      <c r="D44" s="93"/>
       <c r="E44" s="6">
         <f>E45</f>
         <v>0.5204545454545455</v>
       </c>
-      <c r="H44" s="88"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="4" t="s">
         <v>8</v>
       </c>
@@ -4249,9 +4322,9 @@
         <v>0.4795454545454545</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="6">
         <f>C43/($C42+$E42)</f>
         <v>0.26136363636363635</v>
@@ -4264,7 +4337,7 @@
         <f>E43/($C42+$E42)</f>
         <v>0.5204545454545455</v>
       </c>
-      <c r="H45" s="88"/>
+      <c r="H45" s="92"/>
       <c r="I45" s="4" t="s">
         <v>9</v>
       </c>
@@ -4279,19 +4352,31 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H34:H37"/>
     <mergeCell ref="A38:A41"/>
@@ -4304,15 +4389,19 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
@@ -4321,22 +4410,6 @@
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4345,221 +4418,668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="95" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="95"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="H2" s="95"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <f>D2/(D$2+D$3)</f>
+      <c r="C3" s="1">
+        <f>D3/(D$3+D$4)</f>
         <v>0.47363471971066906</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>6548</v>
       </c>
-      <c r="E2" s="1">
-        <f>F2/(F$2+F$3)</f>
+      <c r="E3" s="1">
+        <f>F3/(F$3+F$4)</f>
         <v>0.60966921119592876</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>1198</v>
       </c>
-      <c r="G2" s="1">
-        <f>H2/(H$2+H$3)</f>
+      <c r="G3" s="1">
+        <f>H3/(H$3+H$4)</f>
         <v>0.47959078226723156</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>4641</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="96"/>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <f>D3/(D$2+D$3)</f>
+      <c r="C4" s="1">
+        <f>D4/(D$3+D$4)</f>
         <v>0.52636528028933094</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>7277</v>
       </c>
-      <c r="E3" s="1">
-        <f>F3/(F$2+F$3)</f>
+      <c r="E4" s="1">
+        <f>F4/(F$3+F$4)</f>
         <v>0.39033078880407124</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>767</v>
       </c>
-      <c r="G3" s="1">
-        <f>H3/(H$2+H$3)</f>
+      <c r="G4" s="1">
+        <f>H4/(H$3+H$4)</f>
         <v>0.52040921773276838</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>5036</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C5" s="95">
         <v>0.87</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95">
+      <c r="D5" s="95"/>
+      <c r="E5" s="95">
         <v>0.8</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95">
+      <c r="F5" s="95"/>
+      <c r="G5" s="95">
         <v>0.86</v>
       </c>
-      <c r="H4" s="95"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="95"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="96"/>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="95"/>
       <c r="E6" s="95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="95"/>
       <c r="G6" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="95"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="H7" s="95"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>0.86329999999999996</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>0.4355</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>0.54020000000000001</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>0.73880000000000001</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>0.82509999999999994</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>0.80789999999999995</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="95" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="95"/>
+      <c r="D11" s="95"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13">
+        <f>D3+D4</f>
+        <v>13825</v>
+      </c>
+      <c r="D13">
+        <f>F3+F4</f>
+        <v>1965</v>
+      </c>
+      <c r="E13">
+        <f>H3+H4</f>
+        <v>9677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0.91</v>
+      </c>
+      <c r="D17">
+        <v>0.87</v>
+      </c>
+      <c r="E17">
+        <v>0.81</v>
+      </c>
+      <c r="F17" s="123">
+        <f>(C17*C$13+D17*D$13+E17*E$13)/(C$13+D$13+E$13)</f>
+        <v>0.86891545922173785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>0.9</v>
+      </c>
+      <c r="D18">
+        <v>0.85</v>
+      </c>
+      <c r="E18">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="123">
+        <f t="shared" ref="F18:F19" si="0">(C18*C$13+D18*D$13+E18*E$13)/(C$13+D$13+E$13)</f>
+        <v>0.83914477559194256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>0.91</v>
+      </c>
+      <c r="D19">
+        <v>0.49</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="123">
+        <f t="shared" si="0"/>
+        <v>0.75979895551105348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="95"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>0.8</v>
+      </c>
+      <c r="D24">
+        <v>0.78</v>
+      </c>
+      <c r="G24" s="123">
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <v>0.81</v>
+      </c>
+      <c r="D25">
+        <v>0.78</v>
+      </c>
+      <c r="E25">
+        <v>0.73</v>
+      </c>
+      <c r="F25" s="123">
+        <f t="shared" ref="F25:F34" si="1">(C25*C$13+D25*D$13+E25*E$13)/(C$13+D$13+E$13)</f>
+        <v>0.77728668472925744</v>
+      </c>
+      <c r="G25" s="123">
+        <v>0.87302959888308496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26">
+        <v>0.91</v>
+      </c>
+      <c r="D26">
+        <v>0.87</v>
+      </c>
+      <c r="E26">
+        <v>0.81</v>
+      </c>
+      <c r="F26" s="123">
+        <f t="shared" si="1"/>
+        <v>0.86891545922173785</v>
+      </c>
+      <c r="G26" s="123">
+        <v>0.86189201870221299</v>
+      </c>
+      <c r="H26" s="123"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27">
+        <v>0.85</v>
+      </c>
+      <c r="D27">
+        <v>0.74</v>
+      </c>
+      <c r="E27">
+        <v>0.82</v>
+      </c>
+      <c r="F27" s="123">
+        <f t="shared" si="1"/>
+        <v>0.83011308752503232</v>
+      </c>
+      <c r="G27" s="123">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="H27" s="123"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28">
+        <v>0.83</v>
+      </c>
+      <c r="D28">
+        <v>0.73</v>
+      </c>
+      <c r="E28">
+        <v>0.79</v>
+      </c>
+      <c r="F28" s="123">
+        <f t="shared" si="1"/>
+        <v>0.80708485491027604</v>
+      </c>
+      <c r="G28" s="123">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="H28" s="123"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>13825</v>
+      </c>
+      <c r="D29">
+        <v>1965</v>
+      </c>
+      <c r="E29">
+        <v>9677</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="123"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" s="123"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="95"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="123">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="H32" s="123"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33">
+        <v>0.88</v>
+      </c>
+      <c r="D33">
+        <v>0.78</v>
+      </c>
+      <c r="E33">
+        <v>0.86</v>
+      </c>
+      <c r="F33" s="123">
+        <f t="shared" si="1"/>
+        <v>0.8646844936584599</v>
+      </c>
+      <c r="G33" s="123">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="H33" s="123"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <v>0.85</v>
+      </c>
+      <c r="D34">
+        <v>0.75</v>
+      </c>
+      <c r="E34">
+        <v>0.79</v>
+      </c>
+      <c r="F34" s="123">
+        <f t="shared" si="1"/>
+        <v>0.81948521616209213</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35">
+        <v>13825</v>
+      </c>
+      <c r="D35">
+        <v>1965</v>
+      </c>
+      <c r="E35">
+        <v>9677</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>0.81</v>
+      </c>
+      <c r="D39">
+        <v>0.78</v>
+      </c>
+      <c r="E39">
+        <v>0.73</v>
+      </c>
+      <c r="F39" s="123">
+        <f t="shared" ref="F39:F41" si="2">(C39*C$13+D39*D$13+E39*E$13)/(C$13+D$13+E$13)</f>
+        <v>0.77728668472925744</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>0.9</v>
+      </c>
+      <c r="D40">
+        <v>0.87</v>
+      </c>
+      <c r="E40">
+        <v>0.79</v>
+      </c>
+      <c r="F40" s="123">
+        <f t="shared" si="2"/>
+        <v>0.85588722660698147</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.91</v>
+      </c>
+      <c r="D41">
+        <v>0.66</v>
+      </c>
+      <c r="E41">
+        <v>0.64</v>
+      </c>
+      <c r="F41" s="123">
+        <f t="shared" si="2"/>
+        <v>0.78811520791612677</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E4:F4"/>
+  <mergeCells count="21">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4567,77 +5087,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:M12"/>
+    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7109375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="24" customWidth="1"/>
-    <col min="18" max="21" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.7265625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" style="24" customWidth="1"/>
+    <col min="18" max="21" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="105"/>
-    </row>
-    <row r="2" spans="1:41" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="102"/>
+    </row>
+    <row r="2" spans="1:41" s="46" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="97" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="97" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="97" t="s">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="99"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="111"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -4663,34 +5183,34 @@
       <c r="AN2"/>
       <c r="AO2"/>
     </row>
-    <row r="3" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="100" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="100" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="100" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="102"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -4722,7 +5242,7 @@
       <c r="AN3"/>
       <c r="AO3"/>
     </row>
-    <row r="4" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
@@ -4807,7 +5327,7 @@
       <c r="AN4"/>
       <c r="AO4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>37</v>
       </c>
@@ -4872,7 +5392,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
         <v>38</v>
       </c>
@@ -4925,7 +5445,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>39</v>
       </c>
@@ -5002,93 +5522,93 @@
       <c r="AN7"/>
       <c r="AO7"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="114"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="108"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
-    </row>
-    <row r="11" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+    </row>
+    <row r="11" spans="1:41" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="97" t="s">
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="97" t="s">
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="97" t="s">
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="111"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
@@ -5114,36 +5634,36 @@
       <c r="AN11"/>
       <c r="AO11"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="100" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="100" t="s">
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="100" t="s">
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="102"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="47" t="s">
         <v>56</v>
       </c>
@@ -5196,7 +5716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>37</v>
       </c>
@@ -5249,7 +5769,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
         <v>38</v>
       </c>
@@ -5302,7 +5822,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
         <v>39</v>
       </c>
@@ -5355,7 +5875,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="31"/>
       <c r="B17" s="43"/>
       <c r="C17" s="62"/>
@@ -5374,7 +5894,7 @@
       <c r="P17" s="43"/>
       <c r="Q17" s="43"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -5393,82 +5913,82 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="108"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="114"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="97" t="s">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="111"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="100" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="100" t="s">
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="100" t="s">
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="102"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
         <v>56</v>
       </c>
@@ -5521,7 +6041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="49" t="s">
         <v>37</v>
       </c>
@@ -5560,7 +6080,7 @@
       <c r="P23" s="56"/>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="49" t="s">
         <v>38</v>
       </c>
@@ -5599,7 +6119,7 @@
       <c r="P24" s="43"/>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
         <v>39</v>
       </c>
@@ -5638,7 +6158,7 @@
       <c r="P25" s="44"/>
       <c r="Q25" s="45"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -5657,7 +6177,7 @@
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -5676,84 +6196,84 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="108"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="114"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="97" t="s">
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="97" t="s">
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="99"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="111"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="100" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="100" t="s">
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="100" t="s">
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="102"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="47" t="s">
         <v>56</v>
       </c>
@@ -5806,7 +6326,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="49" t="s">
         <v>37</v>
       </c>
@@ -5851,7 +6371,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="49" t="s">
         <v>38</v>
       </c>
@@ -5896,7 +6416,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>39</v>
       </c>
@@ -5941,7 +6461,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -5960,7 +6480,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -5979,7 +6499,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -5998,7 +6518,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6017,7 +6537,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6027,18 +6547,18 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="97" t="s">
+      <c r="J39" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="99"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="111"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -6050,12 +6570,12 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" s="100" t="s">
+      <c r="J40" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="102"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="99"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
@@ -6067,16 +6587,16 @@
       <c r="U40" s="95"/>
       <c r="V40" s="95"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="99"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="111"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -6110,7 +6630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="52" t="s">
         <v>55</v>
       </c>
@@ -6154,7 +6674,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="47" t="s">
         <v>56</v>
       </c>
@@ -6202,7 +6722,7 @@
         <v>0.34789999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" s="49" t="s">
         <v>37</v>
       </c>
@@ -6252,7 +6772,7 @@
         <v>0.40029999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="49" t="s">
         <v>38</v>
       </c>
@@ -6289,7 +6809,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="50" t="s">
         <v>39</v>
       </c>
@@ -6330,7 +6850,7 @@
       <c r="U46" s="95"/>
       <c r="V46" s="95"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -6369,14 +6889,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48"/>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="99"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="111"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
@@ -6402,14 +6922,14 @@
         <v>0.88580000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49"/>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="102"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="99"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -6435,7 +6955,7 @@
         <v>0.91320000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50" s="22" t="s">
         <v>40</v>
@@ -6453,12 +6973,12 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" s="97" t="s">
+      <c r="J50" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="K50" s="98"/>
-      <c r="L50" s="98"/>
-      <c r="M50" s="99"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="111"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
@@ -6476,7 +6996,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51" s="43">
         <v>0.97250000000000003</v>
@@ -6494,18 +7014,18 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" s="100" t="s">
+      <c r="J51" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="K51" s="101"/>
-      <c r="L51" s="101"/>
-      <c r="M51" s="102"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="99"/>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52" s="43">
         <v>0.99570000000000003</v>
@@ -6537,7 +7057,7 @@
       </c>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53" s="44">
         <v>0.99450000000000005</v>
@@ -6571,7 +7091,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -6595,7 +7115,7 @@
       </c>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -6621,7 +7141,7 @@
       </c>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -6645,7 +7165,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57" s="22" t="s">
         <v>75</v>
@@ -6672,7 +7192,7 @@
       <c r="M57" s="1"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58" s="22" t="s">
         <v>76</v>
@@ -6696,7 +7216,7 @@
       <c r="M58" s="1"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59" s="22" t="s">
         <v>77</v>
@@ -6714,7 +7234,7 @@
       <c r="K59"/>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -6728,7 +7248,7 @@
       <c r="K60"/>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61" s="22" t="s">
         <v>78</v>
@@ -6755,7 +7275,7 @@
       <c r="P61"/>
       <c r="Q61"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="B62" s="22" t="s">
         <v>76</v>
@@ -6777,7 +7297,7 @@
       <c r="K62"/>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63" s="22" t="s">
         <v>77</v>
@@ -6799,7 +7319,7 @@
       <c r="K63"/>
       <c r="Q63"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -6813,7 +7333,7 @@
       <c r="K64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -6827,7 +7347,7 @@
       <c r="K65"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -6843,7 +7363,7 @@
       <c r="N66" s="71"/>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -6859,7 +7379,7 @@
       <c r="N67" s="71"/>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -6875,7 +7395,7 @@
       <c r="N68" s="71"/>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -6889,7 +7409,7 @@
       <c r="K69"/>
       <c r="Q69"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -6903,7 +7423,7 @@
       <c r="K70"/>
       <c r="Q70"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -6922,7 +7442,7 @@
       <c r="P71"/>
       <c r="Q71"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -6941,7 +7461,7 @@
       <c r="P72"/>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -6960,7 +7480,7 @@
       <c r="P73"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -6979,7 +7499,7 @@
       <c r="P74"/>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -6998,7 +7518,7 @@
       <c r="P75"/>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -7017,7 +7537,7 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -7036,7 +7556,7 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -7055,7 +7575,7 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -7074,7 +7594,7 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -7093,7 +7613,7 @@
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -7112,7 +7632,7 @@
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -7131,7 +7651,7 @@
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -7150,7 +7670,7 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -7169,7 +7689,7 @@
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -7188,7 +7708,7 @@
       <c r="P85"/>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -7207,7 +7727,7 @@
       <c r="P86"/>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -7226,7 +7746,7 @@
       <c r="P87"/>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -7245,7 +7765,7 @@
       <c r="P88"/>
       <c r="Q88"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -7264,7 +7784,7 @@
       <c r="P89"/>
       <c r="Q89"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -7283,7 +7803,7 @@
       <c r="P90"/>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -7302,7 +7822,7 @@
       <c r="P91"/>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -7321,7 +7841,7 @@
       <c r="P92"/>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -7340,7 +7860,7 @@
       <c r="P93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -7359,7 +7879,7 @@
       <c r="P94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -7378,7 +7898,7 @@
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -7397,7 +7917,7 @@
       <c r="P96"/>
       <c r="Q96"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -7416,7 +7936,7 @@
       <c r="P97"/>
       <c r="Q97"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -7435,7 +7955,7 @@
       <c r="P98"/>
       <c r="Q98"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -7454,7 +7974,7 @@
       <c r="P99"/>
       <c r="Q99"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -7473,7 +7993,7 @@
       <c r="P100"/>
       <c r="Q100"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -7492,7 +8012,7 @@
       <c r="P101"/>
       <c r="Q101"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -7511,7 +8031,7 @@
       <c r="P102"/>
       <c r="Q102"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -7530,7 +8050,7 @@
       <c r="P103"/>
       <c r="Q103"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -7549,7 +8069,7 @@
       <c r="P104"/>
       <c r="Q104"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -7568,7 +8088,7 @@
       <c r="P105"/>
       <c r="Q105"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -7587,7 +8107,7 @@
       <c r="P106"/>
       <c r="Q106"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -7606,7 +8126,7 @@
       <c r="P107"/>
       <c r="Q107"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -7625,7 +8145,7 @@
       <c r="P108"/>
       <c r="Q108"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -7644,7 +8164,7 @@
       <c r="P109"/>
       <c r="Q109"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -7663,7 +8183,7 @@
       <c r="P110"/>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -7682,7 +8202,7 @@
       <c r="P111"/>
       <c r="Q111"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -7701,7 +8221,7 @@
       <c r="P112"/>
       <c r="Q112"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -7720,7 +8240,7 @@
       <c r="P113"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -7739,7 +8259,7 @@
       <c r="P114"/>
       <c r="Q114"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -7758,7 +8278,7 @@
       <c r="P115"/>
       <c r="Q115"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -7777,7 +8297,7 @@
       <c r="P116"/>
       <c r="Q116"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -7796,7 +8316,7 @@
       <c r="P117"/>
       <c r="Q117"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -7815,7 +8335,7 @@
       <c r="P118"/>
       <c r="Q118"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -7834,7 +8354,7 @@
       <c r="P119"/>
       <c r="Q119"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -7853,7 +8373,7 @@
       <c r="P120"/>
       <c r="Q120"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -7872,7 +8392,7 @@
       <c r="P121"/>
       <c r="Q121"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -7891,7 +8411,7 @@
       <c r="P122"/>
       <c r="Q122"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -7910,7 +8430,7 @@
       <c r="P123"/>
       <c r="Q123"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -7929,7 +8449,7 @@
       <c r="P124"/>
       <c r="Q124"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -7948,7 +8468,7 @@
       <c r="P125"/>
       <c r="Q125"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -7967,7 +8487,7 @@
       <c r="P126"/>
       <c r="Q126"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -7986,7 +8506,7 @@
       <c r="P127"/>
       <c r="Q127"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -8005,7 +8525,7 @@
       <c r="P128"/>
       <c r="Q128"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -8024,7 +8544,7 @@
       <c r="P129"/>
       <c r="Q129"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -8043,7 +8563,7 @@
       <c r="P130"/>
       <c r="Q130"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -8062,7 +8582,7 @@
       <c r="P131"/>
       <c r="Q131"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -8081,7 +8601,7 @@
       <c r="P132"/>
       <c r="Q132"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -8100,7 +8620,7 @@
       <c r="P133"/>
       <c r="Q133"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -8119,7 +8639,7 @@
       <c r="P134"/>
       <c r="Q134"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -8138,7 +8658,7 @@
       <c r="P135"/>
       <c r="Q135"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -8157,7 +8677,7 @@
       <c r="P136"/>
       <c r="Q136"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -8176,7 +8696,7 @@
       <c r="P137"/>
       <c r="Q137"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -8195,7 +8715,7 @@
       <c r="P138"/>
       <c r="Q138"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -8214,7 +8734,7 @@
       <c r="P139"/>
       <c r="Q139"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -8233,7 +8753,7 @@
       <c r="P140"/>
       <c r="Q140"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -8252,7 +8772,7 @@
       <c r="P141"/>
       <c r="Q141"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -8271,7 +8791,7 @@
       <c r="P142"/>
       <c r="Q142"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -8290,7 +8810,7 @@
       <c r="P143"/>
       <c r="Q143"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -8309,7 +8829,7 @@
       <c r="P144"/>
       <c r="Q144"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -8328,7 +8848,7 @@
       <c r="P145"/>
       <c r="Q145"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -8347,7 +8867,7 @@
       <c r="P146"/>
       <c r="Q146"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -8366,7 +8886,7 @@
       <c r="P147"/>
       <c r="Q147"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -8385,7 +8905,7 @@
       <c r="P148"/>
       <c r="Q148"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -8404,7 +8924,7 @@
       <c r="P149"/>
       <c r="Q149"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -8423,7 +8943,7 @@
       <c r="P150"/>
       <c r="Q150"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -8442,7 +8962,7 @@
       <c r="P151"/>
       <c r="Q151"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -8461,7 +8981,7 @@
       <c r="P152"/>
       <c r="Q152"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -8480,7 +9000,7 @@
       <c r="P153"/>
       <c r="Q153"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -8499,7 +9019,7 @@
       <c r="P154"/>
       <c r="Q154"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -8518,7 +9038,7 @@
       <c r="P155"/>
       <c r="Q155"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -8537,7 +9057,7 @@
       <c r="P156"/>
       <c r="Q156"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -8556,7 +9076,7 @@
       <c r="P157"/>
       <c r="Q157"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -8575,7 +9095,7 @@
       <c r="P158"/>
       <c r="Q158"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -8594,7 +9114,7 @@
       <c r="P159"/>
       <c r="Q159"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -8613,7 +9133,7 @@
       <c r="P160"/>
       <c r="Q160"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -8632,7 +9152,7 @@
       <c r="P161"/>
       <c r="Q161"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -8651,7 +9171,7 @@
       <c r="P162"/>
       <c r="Q162"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -8670,7 +9190,7 @@
       <c r="P163"/>
       <c r="Q163"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -8689,7 +9209,7 @@
       <c r="P164"/>
       <c r="Q164"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -8708,7 +9228,7 @@
       <c r="P165"/>
       <c r="Q165"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -8727,7 +9247,7 @@
       <c r="P166"/>
       <c r="Q166"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -8746,7 +9266,7 @@
       <c r="P167"/>
       <c r="Q167"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -8765,7 +9285,7 @@
       <c r="P168"/>
       <c r="Q168"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -8784,7 +9304,7 @@
       <c r="P169"/>
       <c r="Q169"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -8803,7 +9323,7 @@
       <c r="P170"/>
       <c r="Q170"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -8822,7 +9342,7 @@
       <c r="P171"/>
       <c r="Q171"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -8841,7 +9361,7 @@
       <c r="P172"/>
       <c r="Q172"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -8860,7 +9380,7 @@
       <c r="P173"/>
       <c r="Q173"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -8879,7 +9399,7 @@
       <c r="P174"/>
       <c r="Q174"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -8898,7 +9418,7 @@
       <c r="P175"/>
       <c r="Q175"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -8917,7 +9437,7 @@
       <c r="P176"/>
       <c r="Q176"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -8936,7 +9456,7 @@
       <c r="P177"/>
       <c r="Q177"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -8955,7 +9475,7 @@
       <c r="P178"/>
       <c r="Q178"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -8974,7 +9494,7 @@
       <c r="P179"/>
       <c r="Q179"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -8993,7 +9513,7 @@
       <c r="P180"/>
       <c r="Q180"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -9012,7 +9532,7 @@
       <c r="P181"/>
       <c r="Q181"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -9031,7 +9551,7 @@
       <c r="P182"/>
       <c r="Q182"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -9050,7 +9570,7 @@
       <c r="P183"/>
       <c r="Q183"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -9069,7 +9589,7 @@
       <c r="P184"/>
       <c r="Q184"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -9088,7 +9608,7 @@
       <c r="P185"/>
       <c r="Q185"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -9107,7 +9627,7 @@
       <c r="P186"/>
       <c r="Q186"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -9126,7 +9646,7 @@
       <c r="P187"/>
       <c r="Q187"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -9145,7 +9665,7 @@
       <c r="P188"/>
       <c r="Q188"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -9164,7 +9684,7 @@
       <c r="P189"/>
       <c r="Q189"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -9183,7 +9703,7 @@
       <c r="P190"/>
       <c r="Q190"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -9202,7 +9722,7 @@
       <c r="P191"/>
       <c r="Q191"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -9221,7 +9741,7 @@
       <c r="P192"/>
       <c r="Q192"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -9240,7 +9760,7 @@
       <c r="P193"/>
       <c r="Q193"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -9259,7 +9779,7 @@
       <c r="P194"/>
       <c r="Q194"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -9278,7 +9798,7 @@
       <c r="P195"/>
       <c r="Q195"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -9297,7 +9817,7 @@
       <c r="P196"/>
       <c r="Q196"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -9316,7 +9836,7 @@
       <c r="P197"/>
       <c r="Q197"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -9335,7 +9855,7 @@
       <c r="P198"/>
       <c r="Q198"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -9354,7 +9874,7 @@
       <c r="P199"/>
       <c r="Q199"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -9373,7 +9893,7 @@
       <c r="P200"/>
       <c r="Q200"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -9392,7 +9912,7 @@
       <c r="P201"/>
       <c r="Q201"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -9411,7 +9931,7 @@
       <c r="P202"/>
       <c r="Q202"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -9430,7 +9950,7 @@
       <c r="P203"/>
       <c r="Q203"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -9449,7 +9969,7 @@
       <c r="P204"/>
       <c r="Q204"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -9468,7 +9988,7 @@
       <c r="P205"/>
       <c r="Q205"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -9487,7 +10007,7 @@
       <c r="P206"/>
       <c r="Q206"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -9506,7 +10026,7 @@
       <c r="P207"/>
       <c r="Q207"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -9525,7 +10045,7 @@
       <c r="P208"/>
       <c r="Q208"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -9544,7 +10064,7 @@
       <c r="P209"/>
       <c r="Q209"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -9563,7 +10083,7 @@
       <c r="P210"/>
       <c r="Q210"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -9582,7 +10102,7 @@
       <c r="P211"/>
       <c r="Q211"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -9601,7 +10121,7 @@
       <c r="P212"/>
       <c r="Q212"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -9620,7 +10140,7 @@
       <c r="P213"/>
       <c r="Q213"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -9639,7 +10159,7 @@
       <c r="P214"/>
       <c r="Q214"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -9658,7 +10178,7 @@
       <c r="P215"/>
       <c r="Q215"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -9677,7 +10197,7 @@
       <c r="P216"/>
       <c r="Q216"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -9696,7 +10216,7 @@
       <c r="P217"/>
       <c r="Q217"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -9715,7 +10235,7 @@
       <c r="P218"/>
       <c r="Q218"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -9734,7 +10254,7 @@
       <c r="P219"/>
       <c r="Q219"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -9753,7 +10273,7 @@
       <c r="P220"/>
       <c r="Q220"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -9772,7 +10292,7 @@
       <c r="P221"/>
       <c r="Q221"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -9791,7 +10311,7 @@
       <c r="P222"/>
       <c r="Q222"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -9810,7 +10330,7 @@
       <c r="P223"/>
       <c r="Q223"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -9829,7 +10349,7 @@
       <c r="P224"/>
       <c r="Q224"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -9848,7 +10368,7 @@
       <c r="P225"/>
       <c r="Q225"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -9867,7 +10387,7 @@
       <c r="P226"/>
       <c r="Q226"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -9886,7 +10406,7 @@
       <c r="P227"/>
       <c r="Q227"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -9905,7 +10425,7 @@
       <c r="P228"/>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -9924,7 +10444,7 @@
       <c r="P229"/>
       <c r="Q229"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -9943,7 +10463,7 @@
       <c r="P230"/>
       <c r="Q230"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -9962,7 +10482,7 @@
       <c r="P231"/>
       <c r="Q231"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -9981,7 +10501,7 @@
       <c r="P232"/>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -10000,7 +10520,7 @@
       <c r="P233"/>
       <c r="Q233"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
@@ -10019,7 +10539,7 @@
       <c r="P234"/>
       <c r="Q234"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
@@ -10038,7 +10558,7 @@
       <c r="P235"/>
       <c r="Q235"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
@@ -10057,7 +10577,7 @@
       <c r="P236"/>
       <c r="Q236"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
@@ -10076,7 +10596,7 @@
       <c r="P237"/>
       <c r="Q237"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
@@ -10095,7 +10615,7 @@
       <c r="P238"/>
       <c r="Q238"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
@@ -10114,7 +10634,7 @@
       <c r="P239"/>
       <c r="Q239"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
@@ -10133,7 +10653,7 @@
       <c r="P240"/>
       <c r="Q240"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
@@ -10152,7 +10672,7 @@
       <c r="P241"/>
       <c r="Q241"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
@@ -10171,7 +10691,7 @@
       <c r="P242"/>
       <c r="Q242"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
@@ -10190,7 +10710,7 @@
       <c r="P243"/>
       <c r="Q243"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
@@ -10209,7 +10729,7 @@
       <c r="P244"/>
       <c r="Q244"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
@@ -10228,7 +10748,7 @@
       <c r="P245"/>
       <c r="Q245"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
@@ -10247,7 +10767,7 @@
       <c r="P246"/>
       <c r="Q246"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
@@ -10266,7 +10786,7 @@
       <c r="P247"/>
       <c r="Q247"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
@@ -10285,7 +10805,7 @@
       <c r="P248"/>
       <c r="Q248"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
@@ -10304,7 +10824,7 @@
       <c r="P249"/>
       <c r="Q249"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
@@ -10323,7 +10843,7 @@
       <c r="P250"/>
       <c r="Q250"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
@@ -10342,7 +10862,7 @@
       <c r="P251"/>
       <c r="Q251"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
@@ -10361,7 +10881,7 @@
       <c r="P252"/>
       <c r="Q252"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
@@ -10380,7 +10900,7 @@
       <c r="P253"/>
       <c r="Q253"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
@@ -10399,7 +10919,7 @@
       <c r="P254"/>
       <c r="Q254"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
@@ -10418,7 +10938,7 @@
       <c r="P255"/>
       <c r="Q255"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
@@ -10437,7 +10957,7 @@
       <c r="P256"/>
       <c r="Q256"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
@@ -10456,7 +10976,7 @@
       <c r="P257"/>
       <c r="Q257"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
@@ -10475,7 +10995,7 @@
       <c r="P258"/>
       <c r="Q258"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
@@ -10494,7 +11014,7 @@
       <c r="P259"/>
       <c r="Q259"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -10513,7 +11033,7 @@
       <c r="P260"/>
       <c r="Q260"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
@@ -10532,7 +11052,7 @@
       <c r="P261"/>
       <c r="Q261"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
@@ -10551,7 +11071,7 @@
       <c r="P262"/>
       <c r="Q262"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
@@ -10570,7 +11090,7 @@
       <c r="P263"/>
       <c r="Q263"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
@@ -10589,7 +11109,7 @@
       <c r="P264"/>
       <c r="Q264"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
@@ -10608,7 +11128,7 @@
       <c r="P265"/>
       <c r="Q265"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
@@ -10627,7 +11147,7 @@
       <c r="P266"/>
       <c r="Q266"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
@@ -10646,7 +11166,7 @@
       <c r="P267"/>
       <c r="Q267"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
@@ -10665,7 +11185,7 @@
       <c r="P268"/>
       <c r="Q268"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
@@ -10684,7 +11204,7 @@
       <c r="P269"/>
       <c r="Q269"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
@@ -10703,7 +11223,7 @@
       <c r="P270"/>
       <c r="Q270"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
@@ -10722,7 +11242,7 @@
       <c r="P271"/>
       <c r="Q271"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
@@ -10741,7 +11261,7 @@
       <c r="P272"/>
       <c r="Q272"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
@@ -10760,7 +11280,7 @@
       <c r="P273"/>
       <c r="Q273"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
@@ -10779,7 +11299,7 @@
       <c r="P274"/>
       <c r="Q274"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
@@ -10798,7 +11318,7 @@
       <c r="P275"/>
       <c r="Q275"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
@@ -10817,7 +11337,7 @@
       <c r="P276"/>
       <c r="Q276"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
@@ -10836,7 +11356,7 @@
       <c r="P277"/>
       <c r="Q277"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
@@ -10855,7 +11375,7 @@
       <c r="P278"/>
       <c r="Q278"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
@@ -10874,7 +11394,7 @@
       <c r="P279"/>
       <c r="Q279"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
@@ -10893,7 +11413,7 @@
       <c r="P280"/>
       <c r="Q280"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
@@ -10912,7 +11432,7 @@
       <c r="P281"/>
       <c r="Q281"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
@@ -10931,7 +11451,7 @@
       <c r="P282"/>
       <c r="Q282"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
@@ -10950,7 +11470,7 @@
       <c r="P283"/>
       <c r="Q283"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
@@ -10969,7 +11489,7 @@
       <c r="P284"/>
       <c r="Q284"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
@@ -10988,7 +11508,7 @@
       <c r="P285"/>
       <c r="Q285"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
@@ -11007,7 +11527,7 @@
       <c r="P286"/>
       <c r="Q286"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
@@ -11026,7 +11546,7 @@
       <c r="P287"/>
       <c r="Q287"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
@@ -11045,7 +11565,7 @@
       <c r="P288"/>
       <c r="Q288"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
@@ -11064,7 +11584,7 @@
       <c r="P289"/>
       <c r="Q289"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
@@ -11083,7 +11603,7 @@
       <c r="P290"/>
       <c r="Q290"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
@@ -11102,7 +11622,7 @@
       <c r="P291"/>
       <c r="Q291"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
@@ -11121,7 +11641,7 @@
       <c r="P292"/>
       <c r="Q292"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
@@ -11140,7 +11660,7 @@
       <c r="P293"/>
       <c r="Q293"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
@@ -11159,7 +11679,7 @@
       <c r="P294"/>
       <c r="Q294"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
@@ -11178,7 +11698,7 @@
       <c r="P295"/>
       <c r="Q295"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
@@ -11197,7 +11717,7 @@
       <c r="P296"/>
       <c r="Q296"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
@@ -11216,7 +11736,7 @@
       <c r="P297"/>
       <c r="Q297"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
@@ -11235,7 +11755,7 @@
       <c r="P298"/>
       <c r="Q298"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
@@ -11254,7 +11774,7 @@
       <c r="P299"/>
       <c r="Q299"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
@@ -11273,7 +11793,7 @@
       <c r="P300"/>
       <c r="Q300"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
@@ -11292,7 +11812,7 @@
       <c r="P301"/>
       <c r="Q301"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
@@ -11311,7 +11831,7 @@
       <c r="P302"/>
       <c r="Q302"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
@@ -11330,7 +11850,7 @@
       <c r="P303"/>
       <c r="Q303"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
@@ -11349,7 +11869,7 @@
       <c r="P304"/>
       <c r="Q304"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
@@ -11368,7 +11888,7 @@
       <c r="P305"/>
       <c r="Q305"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
@@ -11387,7 +11907,7 @@
       <c r="P306"/>
       <c r="Q306"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
@@ -11406,7 +11926,7 @@
       <c r="P307"/>
       <c r="Q307"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
@@ -11425,7 +11945,7 @@
       <c r="P308"/>
       <c r="Q308"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
@@ -11444,7 +11964,7 @@
       <c r="P309"/>
       <c r="Q309"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
@@ -11463,7 +11983,7 @@
       <c r="P310"/>
       <c r="Q310"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
@@ -11482,7 +12002,7 @@
       <c r="P311"/>
       <c r="Q311"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
@@ -11501,7 +12021,7 @@
       <c r="P312"/>
       <c r="Q312"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
@@ -11520,7 +12040,7 @@
       <c r="P313"/>
       <c r="Q313"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
@@ -11539,7 +12059,7 @@
       <c r="P314"/>
       <c r="Q314"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
@@ -11558,7 +12078,7 @@
       <c r="P315"/>
       <c r="Q315"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
@@ -11577,7 +12097,7 @@
       <c r="P316"/>
       <c r="Q316"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
@@ -11596,7 +12116,7 @@
       <c r="P317"/>
       <c r="Q317"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
@@ -11615,7 +12135,7 @@
       <c r="P318"/>
       <c r="Q318"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
@@ -11634,7 +12154,7 @@
       <c r="P319"/>
       <c r="Q319"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
@@ -11653,7 +12173,7 @@
       <c r="P320"/>
       <c r="Q320"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
@@ -11672,7 +12192,7 @@
       <c r="P321"/>
       <c r="Q321"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
@@ -11691,7 +12211,7 @@
       <c r="P322"/>
       <c r="Q322"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
@@ -11710,7 +12230,7 @@
       <c r="P323"/>
       <c r="Q323"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
@@ -11729,7 +12249,7 @@
       <c r="P324"/>
       <c r="Q324"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
@@ -11748,7 +12268,7 @@
       <c r="P325"/>
       <c r="Q325"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
@@ -11767,7 +12287,7 @@
       <c r="P326"/>
       <c r="Q326"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
@@ -11786,7 +12306,7 @@
       <c r="P327"/>
       <c r="Q327"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
@@ -11805,7 +12325,7 @@
       <c r="P328"/>
       <c r="Q328"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
@@ -11824,7 +12344,7 @@
       <c r="P329"/>
       <c r="Q329"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
@@ -11843,7 +12363,7 @@
       <c r="P330"/>
       <c r="Q330"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
@@ -11862,7 +12382,7 @@
       <c r="P331"/>
       <c r="Q331"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
@@ -11881,7 +12401,7 @@
       <c r="P332"/>
       <c r="Q332"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
@@ -11900,7 +12420,7 @@
       <c r="P333"/>
       <c r="Q333"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
@@ -11919,7 +12439,7 @@
       <c r="P334"/>
       <c r="Q334"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
@@ -11938,7 +12458,7 @@
       <c r="P335"/>
       <c r="Q335"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
@@ -11957,7 +12477,7 @@
       <c r="P336"/>
       <c r="Q336"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
@@ -11976,7 +12496,7 @@
       <c r="P337"/>
       <c r="Q337"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
@@ -11995,7 +12515,7 @@
       <c r="P338"/>
       <c r="Q338"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
@@ -12014,7 +12534,7 @@
       <c r="P339"/>
       <c r="Q339"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
@@ -12033,7 +12553,7 @@
       <c r="P340"/>
       <c r="Q340"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
@@ -12052,7 +12572,7 @@
       <c r="P341"/>
       <c r="Q341"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
@@ -12071,7 +12591,7 @@
       <c r="P342"/>
       <c r="Q342"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
@@ -12090,7 +12610,7 @@
       <c r="P343"/>
       <c r="Q343"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
@@ -12109,7 +12629,7 @@
       <c r="P344"/>
       <c r="Q344"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
@@ -12128,7 +12648,7 @@
       <c r="P345"/>
       <c r="Q345"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
@@ -12147,7 +12667,7 @@
       <c r="P346"/>
       <c r="Q346"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
@@ -12166,7 +12686,7 @@
       <c r="P347"/>
       <c r="Q347"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
@@ -12185,7 +12705,7 @@
       <c r="P348"/>
       <c r="Q348"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
@@ -12204,7 +12724,7 @@
       <c r="P349"/>
       <c r="Q349"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
@@ -12223,7 +12743,7 @@
       <c r="P350"/>
       <c r="Q350"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
@@ -12242,7 +12762,7 @@
       <c r="P351"/>
       <c r="Q351"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
@@ -12261,7 +12781,7 @@
       <c r="P352"/>
       <c r="Q352"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
@@ -12280,7 +12800,7 @@
       <c r="P353"/>
       <c r="Q353"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
@@ -12299,7 +12819,7 @@
       <c r="P354"/>
       <c r="Q354"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
@@ -12318,7 +12838,7 @@
       <c r="P355"/>
       <c r="Q355"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
@@ -12337,7 +12857,7 @@
       <c r="P356"/>
       <c r="Q356"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
@@ -12356,7 +12876,7 @@
       <c r="P357"/>
       <c r="Q357"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
@@ -12375,7 +12895,7 @@
       <c r="P358"/>
       <c r="Q358"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
@@ -12394,7 +12914,7 @@
       <c r="P359"/>
       <c r="Q359"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
@@ -12413,7 +12933,7 @@
       <c r="P360"/>
       <c r="Q360"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
@@ -12432,7 +12952,7 @@
       <c r="P361"/>
       <c r="Q361"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
@@ -12451,7 +12971,7 @@
       <c r="P362"/>
       <c r="Q362"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
@@ -12470,7 +12990,7 @@
       <c r="P363"/>
       <c r="Q363"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
@@ -12489,7 +13009,7 @@
       <c r="P364"/>
       <c r="Q364"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
@@ -12508,7 +13028,7 @@
       <c r="P365"/>
       <c r="Q365"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
@@ -12527,7 +13047,7 @@
       <c r="P366"/>
       <c r="Q366"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
@@ -12546,7 +13066,7 @@
       <c r="P367"/>
       <c r="Q367"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
@@ -12565,7 +13085,7 @@
       <c r="P368"/>
       <c r="Q368"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
@@ -12584,7 +13104,7 @@
       <c r="P369"/>
       <c r="Q369"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
@@ -12603,7 +13123,7 @@
       <c r="P370"/>
       <c r="Q370"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
@@ -12622,7 +13142,7 @@
       <c r="P371"/>
       <c r="Q371"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
@@ -12641,7 +13161,7 @@
       <c r="P372"/>
       <c r="Q372"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
@@ -12660,7 +13180,7 @@
       <c r="P373"/>
       <c r="Q373"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
@@ -12679,7 +13199,7 @@
       <c r="P374"/>
       <c r="Q374"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
@@ -12698,7 +13218,7 @@
       <c r="P375"/>
       <c r="Q375"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
@@ -12717,7 +13237,7 @@
       <c r="P376"/>
       <c r="Q376"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
@@ -12736,7 +13256,7 @@
       <c r="P377"/>
       <c r="Q377"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
@@ -12755,7 +13275,7 @@
       <c r="P378"/>
       <c r="Q378"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
@@ -12774,7 +13294,7 @@
       <c r="P379"/>
       <c r="Q379"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
@@ -12793,7 +13313,7 @@
       <c r="P380"/>
       <c r="Q380"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
@@ -12812,7 +13332,7 @@
       <c r="P381"/>
       <c r="Q381"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
@@ -12831,7 +13351,7 @@
       <c r="P382"/>
       <c r="Q382"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
@@ -12850,7 +13370,7 @@
       <c r="P383"/>
       <c r="Q383"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
@@ -12869,7 +13389,7 @@
       <c r="P384"/>
       <c r="Q384"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
@@ -12888,7 +13408,7 @@
       <c r="P385"/>
       <c r="Q385"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
@@ -12907,7 +13427,7 @@
       <c r="P386"/>
       <c r="Q386"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
@@ -12926,7 +13446,7 @@
       <c r="P387"/>
       <c r="Q387"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
@@ -12945,7 +13465,7 @@
       <c r="P388"/>
       <c r="Q388"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
@@ -12964,7 +13484,7 @@
       <c r="P389"/>
       <c r="Q389"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
@@ -12983,7 +13503,7 @@
       <c r="P390"/>
       <c r="Q390"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
@@ -13002,7 +13522,7 @@
       <c r="P391"/>
       <c r="Q391"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
@@ -13021,7 +13541,7 @@
       <c r="P392"/>
       <c r="Q392"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
@@ -13040,7 +13560,7 @@
       <c r="P393"/>
       <c r="Q393"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
@@ -13059,7 +13579,7 @@
       <c r="P394"/>
       <c r="Q394"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
@@ -13078,7 +13598,7 @@
       <c r="P395"/>
       <c r="Q395"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
@@ -13097,7 +13617,7 @@
       <c r="P396"/>
       <c r="Q396"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
@@ -13116,7 +13636,7 @@
       <c r="P397"/>
       <c r="Q397"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
@@ -13135,7 +13655,7 @@
       <c r="P398"/>
       <c r="Q398"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
@@ -13154,7 +13674,7 @@
       <c r="P399"/>
       <c r="Q399"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
@@ -13173,7 +13693,7 @@
       <c r="P400"/>
       <c r="Q400"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
@@ -13192,7 +13712,7 @@
       <c r="P401"/>
       <c r="Q401"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
@@ -13211,7 +13731,7 @@
       <c r="P402"/>
       <c r="Q402"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
@@ -13230,7 +13750,7 @@
       <c r="P403"/>
       <c r="Q403"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
@@ -13249,7 +13769,7 @@
       <c r="P404"/>
       <c r="Q404"/>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
@@ -13268,7 +13788,7 @@
       <c r="P405"/>
       <c r="Q405"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
@@ -13287,7 +13807,7 @@
       <c r="P406"/>
       <c r="Q406"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
@@ -13306,7 +13826,7 @@
       <c r="P407"/>
       <c r="Q407"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
@@ -13325,7 +13845,7 @@
       <c r="P408"/>
       <c r="Q408"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
@@ -13344,7 +13864,7 @@
       <c r="P409"/>
       <c r="Q409"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
@@ -13363,7 +13883,7 @@
       <c r="P410"/>
       <c r="Q410"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
@@ -13382,7 +13902,7 @@
       <c r="P411"/>
       <c r="Q411"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
@@ -13401,7 +13921,7 @@
       <c r="P412"/>
       <c r="Q412"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
@@ -13420,7 +13940,7 @@
       <c r="P413"/>
       <c r="Q413"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
@@ -13439,7 +13959,7 @@
       <c r="P414"/>
       <c r="Q414"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
@@ -13458,7 +13978,7 @@
       <c r="P415"/>
       <c r="Q415"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
@@ -13477,7 +13997,7 @@
       <c r="P416"/>
       <c r="Q416"/>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
@@ -13496,7 +14016,7 @@
       <c r="P417"/>
       <c r="Q417"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
@@ -13515,7 +14035,7 @@
       <c r="P418"/>
       <c r="Q418"/>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
@@ -13534,7 +14054,7 @@
       <c r="P419"/>
       <c r="Q419"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
@@ -13553,7 +14073,7 @@
       <c r="P420"/>
       <c r="Q420"/>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
@@ -13572,7 +14092,7 @@
       <c r="P421"/>
       <c r="Q421"/>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
@@ -13591,7 +14111,7 @@
       <c r="P422"/>
       <c r="Q422"/>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
@@ -13610,7 +14130,7 @@
       <c r="P423"/>
       <c r="Q423"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
@@ -13629,7 +14149,7 @@
       <c r="P424"/>
       <c r="Q424"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
@@ -13648,7 +14168,7 @@
       <c r="P425"/>
       <c r="Q425"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
@@ -13667,7 +14187,7 @@
       <c r="P426"/>
       <c r="Q426"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
@@ -13686,7 +14206,7 @@
       <c r="P427"/>
       <c r="Q427"/>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
@@ -13705,7 +14225,7 @@
       <c r="P428"/>
       <c r="Q428"/>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
@@ -13724,7 +14244,7 @@
       <c r="P429"/>
       <c r="Q429"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
@@ -13743,7 +14263,7 @@
       <c r="P430"/>
       <c r="Q430"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
@@ -13762,7 +14282,7 @@
       <c r="P431"/>
       <c r="Q431"/>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
@@ -13781,7 +14301,7 @@
       <c r="P432"/>
       <c r="Q432"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
@@ -13800,7 +14320,7 @@
       <c r="P433"/>
       <c r="Q433"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
@@ -13819,7 +14339,7 @@
       <c r="P434"/>
       <c r="Q434"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
@@ -13838,7 +14358,7 @@
       <c r="P435"/>
       <c r="Q435"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
@@ -13857,7 +14377,7 @@
       <c r="P436"/>
       <c r="Q436"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
@@ -13876,7 +14396,7 @@
       <c r="P437"/>
       <c r="Q437"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
@@ -13895,7 +14415,7 @@
       <c r="P438"/>
       <c r="Q438"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
@@ -13914,7 +14434,7 @@
       <c r="P439"/>
       <c r="Q439"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
@@ -13933,7 +14453,7 @@
       <c r="P440"/>
       <c r="Q440"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
@@ -13952,7 +14472,7 @@
       <c r="P441"/>
       <c r="Q441"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
@@ -13971,7 +14491,7 @@
       <c r="P442"/>
       <c r="Q442"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
@@ -13990,7 +14510,7 @@
       <c r="P443"/>
       <c r="Q443"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
@@ -14009,7 +14529,7 @@
       <c r="P444"/>
       <c r="Q444"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
@@ -14028,7 +14548,7 @@
       <c r="P445"/>
       <c r="Q445"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
@@ -14047,7 +14567,7 @@
       <c r="P446"/>
       <c r="Q446"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
@@ -14066,7 +14586,7 @@
       <c r="P447"/>
       <c r="Q447"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
@@ -14085,7 +14605,7 @@
       <c r="P448"/>
       <c r="Q448"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
@@ -14104,7 +14624,7 @@
       <c r="P449"/>
       <c r="Q449"/>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
@@ -14123,7 +14643,7 @@
       <c r="P450"/>
       <c r="Q450"/>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
@@ -14142,7 +14662,7 @@
       <c r="P451"/>
       <c r="Q451"/>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
@@ -14161,7 +14681,7 @@
       <c r="P452"/>
       <c r="Q452"/>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
@@ -14180,7 +14700,7 @@
       <c r="P453"/>
       <c r="Q453"/>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
@@ -14199,7 +14719,7 @@
       <c r="P454"/>
       <c r="Q454"/>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
@@ -14218,7 +14738,7 @@
       <c r="P455"/>
       <c r="Q455"/>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
@@ -14237,7 +14757,7 @@
       <c r="P456"/>
       <c r="Q456"/>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
@@ -14256,7 +14776,7 @@
       <c r="P457"/>
       <c r="Q457"/>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
@@ -14275,7 +14795,7 @@
       <c r="P458"/>
       <c r="Q458"/>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
@@ -14296,6 +14816,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A8:Q9"/>
@@ -14312,36 +14862,6 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14357,22 +14877,22 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="9.140625" style="18"/>
-    <col min="6" max="6" width="9.140625" style="30"/>
-    <col min="7" max="7" width="9.140625" style="31"/>
-    <col min="8" max="8" width="9.140625" style="18"/>
-    <col min="9" max="9" width="9.140625" style="30"/>
-    <col min="10" max="10" width="9.140625" style="31"/>
-    <col min="11" max="11" width="9.140625" style="18"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="31"/>
+    <col min="5" max="5" width="9.1796875" style="18"/>
+    <col min="6" max="6" width="9.1796875" style="30"/>
+    <col min="7" max="7" width="9.1796875" style="31"/>
+    <col min="8" max="8" width="9.1796875" style="18"/>
+    <col min="9" max="9" width="9.1796875" style="30"/>
+    <col min="10" max="10" width="9.1796875" style="31"/>
+    <col min="11" max="11" width="9.1796875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="53"/>
       <c r="B1" s="20"/>
       <c r="C1" s="115" t="s">
@@ -14391,7 +14911,7 @@
       <c r="J1" s="116"/>
       <c r="K1" s="117"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="118" t="s">
         <v>45</v>
       </c>
@@ -14429,7 +14949,7 @@
         <v>1.8287037037037074E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="119"/>
       <c r="B3" s="18" t="s">
         <v>48</v>
@@ -14465,7 +14985,7 @@
         <v>9.2592592592533052E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="119"/>
       <c r="B4" s="18" t="s">
         <v>49</v>
@@ -14501,7 +15021,7 @@
         <v>2.7893518518518068E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="119"/>
       <c r="B5" s="18" t="s">
         <v>50</v>
@@ -14537,7 +15057,7 @@
         <v>1.6898148148147829E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="119"/>
       <c r="B6" s="18" t="s">
         <v>51</v>
@@ -14573,7 +15093,7 @@
         <v>8.1018518518494176E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="119"/>
       <c r="B7" s="18" t="s">
         <v>60</v>
@@ -14609,7 +15129,7 @@
         <v>1.574074074074075E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="119"/>
       <c r="B8" s="18" t="s">
         <v>61</v>
@@ -14645,7 +15165,7 @@
         <v>1.782407407407538E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="119"/>
       <c r="B9" s="18" t="s">
         <v>62</v>
@@ -14681,7 +15201,7 @@
         <v>2.4652777777777191E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="119"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
@@ -14702,13 +15222,13 @@
         <v>1.537905092592582E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="54"/>
       <c r="E11" s="27"/>
       <c r="H11" s="27"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="120" t="s">
         <v>47</v>
       </c>
@@ -14746,7 +15266,7 @@
         <v>2.5462962962962965E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="121"/>
       <c r="B13" s="18" t="s">
         <v>48</v>
@@ -14782,7 +15302,7 @@
         <v>3.8194444444439313E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="121"/>
       <c r="B14" s="18" t="s">
         <v>49</v>
@@ -14818,7 +15338,7 @@
         <v>4.9189814814813992E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="121"/>
       <c r="B15" s="18" t="s">
         <v>50</v>
@@ -14854,7 +15374,7 @@
         <v>2.9861111111111338E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="121"/>
       <c r="B16" s="18" t="s">
         <v>51</v>
@@ -14890,7 +15410,7 @@
         <v>4.3981481481480955E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="121"/>
       <c r="B17" s="18" t="s">
         <v>59</v>
@@ -14926,7 +15446,7 @@
         <v>2.025462962962965E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="121"/>
       <c r="B18" s="18" t="s">
         <v>61</v>
@@ -14962,7 +15482,7 @@
         <v>3.0787037037036669E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="121"/>
       <c r="B19" s="18" t="s">
         <v>62</v>
@@ -14998,7 +15518,7 @@
         <v>4.2476851851852016E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55"/>
       <c r="B20" s="26"/>
       <c r="C20" s="40"/>
@@ -15020,22 +15540,22 @@
         <v>2.5781249999999832E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E21" s="27"/>
       <c r="H21" s="27"/>
       <c r="K21" s="27"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E22" s="27"/>
       <c r="H22" s="27"/>
       <c r="K22" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E23" s="27"/>
       <c r="H23" s="27"/>
       <c r="K23" s="27"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E24" s="27"/>
       <c r="H24" s="27"/>
     </row>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="390" tabRatio="503" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="390" tabRatio="503" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="124">
   <si>
     <t xml:space="preserve">Kullu </t>
   </si>
@@ -329,12 +329,6 @@
     <t>no spatial</t>
   </si>
   <si>
-    <t>k300 + SCL</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
     <t>QI data</t>
   </si>
   <si>
@@ -358,15 +352,70 @@
   <si>
     <t>20220111-094108</t>
   </si>
+  <si>
+    <t>k_tune(400)</t>
+  </si>
+  <si>
+    <t>20220111-213339</t>
+  </si>
+  <si>
+    <t>k75 + SCL</t>
+  </si>
+  <si>
+    <t>ww-avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extend table above </t>
+  </si>
+  <si>
+    <t>cv_score</t>
+  </si>
+  <si>
+    <t>rfc + SCL</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
+  </si>
+  <si>
+    <t>43SFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download </t>
+  </si>
+  <si>
+    <t>unzip</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>44RKV</t>
+  </si>
+  <si>
+    <t>43SER</t>
+  </si>
+  <si>
+    <t>43SGR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +486,14 @@
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Corbel Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -634,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,9 +825,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,6 +872,9 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +985,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3043,16 +3130,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>87311</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>148430</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>611186</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>511968</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>153193</xdr:rowOff>
+      <xdr:colOff>289718</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3371,8 +3458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4420,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4429,6 +4516,8 @@
     <col min="1" max="1" width="17.81640625" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -4718,9 +4807,14 @@
         <v>0.75979895551105348</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
@@ -4732,165 +4826,209 @@
         <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
         <v>95</v>
       </c>
+      <c r="H22" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="95"/>
+      <c r="A23" s="124" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="D23" s="87">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="87">
+        <v>0.77</v>
+      </c>
+      <c r="F23" s="131">
+        <f t="shared" ref="F23:F34" si="1">(C23*C$13+D23*D$13+E23*E$13)/(C$13+D$13+E$13)</f>
+        <v>0.81960144500726428</v>
+      </c>
+      <c r="G23" s="131">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="H23" s="123">
+        <f>(C23*C$29+$H$21*(D23*D$29+E23*E$29))/(C$29+$H$21*(D$29+E$29))</f>
+        <v>0.81288545129122991</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="124" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24">
+        <v>104</v>
+      </c>
+      <c r="C24" s="87">
         <v>0.8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="87">
         <v>0.78</v>
       </c>
-      <c r="G24" s="123">
+      <c r="E24" s="87">
+        <v>0.73</v>
+      </c>
+      <c r="F24" s="131">
+        <f t="shared" si="1"/>
+        <v>0.77185809086268509</v>
+      </c>
+      <c r="G24" s="131">
         <v>0.89449999999999996</v>
+      </c>
+      <c r="H24" s="123">
+        <f>(C24*C$29+$H$21*(D24*D$29+E24*E$29))/(C$29+$H$21*(D$29+E$29))</f>
+        <v>0.76564066095627714</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25">
+        <v>103</v>
+      </c>
+      <c r="C25" s="87">
         <v>0.81</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="87">
         <v>0.78</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="87">
         <v>0.73</v>
       </c>
-      <c r="F25" s="123">
-        <f t="shared" ref="F25:F34" si="1">(C25*C$13+D25*D$13+E25*E$13)/(C$13+D$13+E$13)</f>
+      <c r="F25" s="131">
+        <f t="shared" si="1"/>
         <v>0.77728668472925744</v>
       </c>
-      <c r="G25" s="123">
+      <c r="G25" s="131">
         <v>0.87302959888308496</v>
       </c>
+      <c r="H25" s="123">
+        <f>(C25*C$29+$H$21*(D25*D$29+E25*E$29))/(C$29+$H$21*(D$29+E$29))</f>
+        <v>0.77005928790590639</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="133">
         <v>0.91</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="133">
         <v>0.87</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="133">
         <v>0.81</v>
       </c>
-      <c r="F26" s="123">
+      <c r="F26" s="134">
         <f t="shared" si="1"/>
         <v>0.86891545922173785</v>
       </c>
-      <c r="G26" s="123">
+      <c r="G26" s="134">
         <v>0.86189201870221299</v>
       </c>
-      <c r="H26" s="123"/>
+      <c r="H26" s="135">
+        <f>(C26*C$29+$H$21*(D26*D$29+E26*E$29))/(C$29+$H$21*(D$29+E$29))</f>
+        <v>0.85983859626693948</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>96</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="87">
         <v>0.85</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="87">
         <v>0.74</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="87">
         <v>0.82</v>
       </c>
-      <c r="F27" s="123">
+      <c r="F27" s="131">
         <f t="shared" si="1"/>
         <v>0.83011308752503232</v>
       </c>
-      <c r="G27" s="123">
+      <c r="G27" s="131">
         <v>0.85160000000000002</v>
       </c>
-      <c r="H27" s="123"/>
+      <c r="H27" s="123">
+        <f>(C27*C$29+$H$21*(D27*D$29+E27*E$29))/(C$29+$H$21*(D$29+E$29))</f>
+        <v>0.82571944515469187</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="87">
         <v>0.83</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="87">
         <v>0.73</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="87">
         <v>0.79</v>
       </c>
-      <c r="F28" s="123">
+      <c r="F28" s="131">
         <f t="shared" si="1"/>
         <v>0.80708485491027604</v>
       </c>
-      <c r="G28" s="123">
+      <c r="G28" s="131">
         <v>0.85360000000000003</v>
       </c>
-      <c r="H28" s="123"/>
+      <c r="H28" s="123">
+        <f>(C28*C$29+$H$21*(D28*D$29+E28*E$29))/(C$29+$H$21*(D$29+E$29))</f>
+        <v>0.80202218102787015</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>93</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="87">
         <v>13825</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="87">
         <v>1965</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="87">
         <v>9677</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="123"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H30" s="123"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" s="95"/>
       <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
       <c r="H31" s="123"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -4912,9 +5050,8 @@
       <c r="G32" s="123">
         <v>0.88029999999999997</v>
       </c>
-      <c r="H32" s="123"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>96</v>
       </c>
@@ -4934,9 +5071,8 @@
       <c r="G33" s="123">
         <v>0.87429999999999997</v>
       </c>
-      <c r="H33" s="123"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>97</v>
       </c>
@@ -4957,7 +5093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>93</v>
       </c>
@@ -4977,16 +5113,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" s="95" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C37" s="95"/>
       <c r="D37" s="95"/>
       <c r="E37" s="95"/>
       <c r="F37" s="95"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>88</v>
       </c>
@@ -5000,7 +5136,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>38</v>
       </c>
@@ -5018,7 +5154,7 @@
         <v>0.77728668472925744</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -5036,7 +5172,7 @@
         <v>0.85588722660698147</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>39</v>
       </c>
@@ -5055,10 +5191,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B37:F37"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G7:H7"/>
@@ -5085,28 +5220,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO459"/>
+  <dimension ref="A1:AO460"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7265625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="6.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.7265625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" style="24" customWidth="1"/>
-    <col min="18" max="21" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="18"/>
+    <col min="2" max="4" width="10.6328125" style="17"/>
+    <col min="5" max="5" width="10.6328125" style="24"/>
+    <col min="6" max="8" width="10.6328125" style="17"/>
+    <col min="9" max="9" width="10.6328125" style="24"/>
+    <col min="10" max="12" width="10.6328125" style="17"/>
+    <col min="13" max="13" width="10.6328125" style="24"/>
+    <col min="14" max="16" width="10.6328125" style="17"/>
+    <col min="17" max="17" width="10.6328125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
@@ -5346,13 +5476,13 @@
       <c r="F5" s="43">
         <v>0.97750000000000004</v>
       </c>
-      <c r="G5" s="74">
+      <c r="G5" s="73">
         <v>0.82</v>
       </c>
-      <c r="H5" s="76">
+      <c r="H5" s="75">
         <v>0.81</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="76">
         <v>0.78</v>
       </c>
       <c r="J5" s="43">
@@ -5411,13 +5541,13 @@
       <c r="F6" s="43">
         <v>0.99670000000000003</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="75">
         <v>0.86</v>
       </c>
-      <c r="H6" s="74">
+      <c r="H6" s="73">
         <v>0.76</v>
       </c>
-      <c r="I6" s="75">
+      <c r="I6" s="74">
         <v>0.75</v>
       </c>
       <c r="J6" s="43">
@@ -5464,13 +5594,13 @@
       <c r="F7" s="44">
         <v>0.99470000000000003</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="77">
         <v>0.78</v>
       </c>
-      <c r="H7" s="78">
+      <c r="H7" s="77">
         <v>0.68</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="78">
         <v>0.74</v>
       </c>
       <c r="J7" s="44">
@@ -6066,13 +6196,13 @@
         <v>0.81</v>
       </c>
       <c r="J23" s="43"/>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="73" t="s">
+      <c r="M23" s="72" t="s">
         <v>68</v>
       </c>
       <c r="N23" s="43"/>
@@ -6105,13 +6235,13 @@
         <v>0.79</v>
       </c>
       <c r="J24" s="43"/>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="73" t="s">
+      <c r="M24" s="72" t="s">
         <v>68</v>
       </c>
       <c r="N24" s="43"/>
@@ -6144,13 +6274,13 @@
         <v>68</v>
       </c>
       <c r="J25" s="44"/>
-      <c r="K25" s="80" t="s">
+      <c r="K25" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="81" t="s">
+      <c r="M25" s="80" t="s">
         <v>68</v>
       </c>
       <c r="N25" s="44"/>
@@ -6351,13 +6481,13 @@
         <v>0.79</v>
       </c>
       <c r="J32" s="43"/>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="72" t="s">
+      <c r="L32" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="73" t="s">
+      <c r="M32" s="72" t="s">
         <v>68</v>
       </c>
       <c r="N32" s="43"/>
@@ -6371,7 +6501,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="49" t="s">
         <v>38</v>
       </c>
@@ -6379,7 +6509,7 @@
       <c r="C33" s="56">
         <v>0.86</v>
       </c>
-      <c r="D33" s="72">
+      <c r="D33" s="71">
         <v>0.73</v>
       </c>
       <c r="E33" s="57">
@@ -6396,27 +6526,27 @@
         <v>0.81</v>
       </c>
       <c r="J33" s="43"/>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="72" t="s">
+      <c r="L33" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M33" s="73" t="s">
+      <c r="M33" s="72" t="s">
         <v>68</v>
       </c>
       <c r="N33" s="43"/>
       <c r="O33" s="56">
         <v>0.86</v>
       </c>
-      <c r="P33" s="72">
+      <c r="P33" s="71">
         <v>0.73</v>
       </c>
       <c r="Q33" s="57">
         <v>0.81</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>39</v>
       </c>
@@ -6441,13 +6571,13 @@
         <v>68</v>
       </c>
       <c r="J34" s="44"/>
-      <c r="K34" s="80" t="s">
+      <c r="K34" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="L34" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="81" t="s">
+      <c r="M34" s="80" t="s">
         <v>68</v>
       </c>
       <c r="N34" s="44"/>
@@ -6461,7 +6591,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6480,12 +6610,18 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
+      <c r="C36" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
@@ -6499,12 +6635,20 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A37"/>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
       <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
+      <c r="C37">
+        <v>13825</v>
+      </c>
+      <c r="D37">
+        <v>1965</v>
+      </c>
+      <c r="E37">
+        <v>9677</v>
+      </c>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
@@ -6518,7 +6662,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6537,561 +6681,684 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="111"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40" s="97" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A39" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="114"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="105"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="99"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="S40" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="T40" s="95"/>
-      <c r="U40" s="95"/>
-      <c r="V40" s="95"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" s="51" t="s">
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="M41" s="126"/>
+      <c r="N41" s="126"/>
+      <c r="O41" s="126"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="R41" s="126"/>
+      <c r="S41" s="126"/>
+      <c r="T41" s="126"/>
+      <c r="U41" s="127"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L42" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="M42" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="N42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q42" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="R42" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="S42" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="30">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="C43" s="128">
+        <f>(D43*$C$37+E43*$D$37+F43*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.79342875093257936</v>
+      </c>
+      <c r="D43" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="E43" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="G43" s="30">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="H43" s="128">
+        <f>(I43*$C$37+J43*$D$37+K43*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.8402293163702047</v>
+      </c>
+      <c r="I43" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="J43" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="128" t="e">
+        <f>(N43*$C$37+O43*$D$37+P43*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="128">
+        <f>(S43*$C$37+T43*$D$37+U43*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="18"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="30">
+        <v>0.877</v>
+      </c>
+      <c r="C44" s="128">
+        <f t="shared" ref="C44:C45" si="0">(D44*$C$37+E44*$D$37+F44*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81948521616209213</v>
+      </c>
+      <c r="D44" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="E44" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="G44" s="30">
+        <v>0.877</v>
+      </c>
+      <c r="H44" s="128">
+        <f t="shared" ref="H44:H45" si="1">(I44*$C$37+J44*$D$37+K44*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81948521616209213</v>
+      </c>
+      <c r="I44" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="J44" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="128" t="e">
+        <f t="shared" ref="M44:M45" si="2">(N44*$C$37+O44*$D$37+P44*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N44" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O44" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="128">
+        <f t="shared" ref="R44:R45" si="3">(S44*$C$37+T44*$D$37+U44*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="129" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="55"/>
+      <c r="H45" s="129" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="44"/>
+      <c r="K45" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" s="55"/>
+      <c r="M45" s="129" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O45" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="129">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="26"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" s="31"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="113"/>
+      <c r="U47" s="114"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="111"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="22" t="s">
+      <c r="B48" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="R48" s="104"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="105"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="126"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="126"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="125" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" s="126"/>
+      <c r="N49" s="126"/>
+      <c r="O49" s="126"/>
+      <c r="P49" s="127"/>
+      <c r="Q49" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="R49" s="126"/>
+      <c r="S49" s="126"/>
+      <c r="T49" s="126"/>
+      <c r="U49" s="127"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="F50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="S41" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="22" t="s">
+      <c r="G50" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="U41" s="22" t="s">
+      <c r="J50" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V41" s="23" t="s">
+      <c r="K50" s="20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="60"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42" t="s">
+      <c r="L50" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q50" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="R50" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="S50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U50" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I42" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="82">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="L42" s="83">
-        <v>0.9516</v>
-      </c>
-      <c r="M42" s="84">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="S42" t="s">
-        <v>37</v>
-      </c>
-      <c r="T42" s="82">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="U42" s="83">
-        <v>0.9516</v>
-      </c>
-      <c r="V42" s="84">
-        <v>0.54900000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="83">
-        <v>0.71279999999999999</v>
-      </c>
-      <c r="L43" s="82">
-        <v>0.73770000000000002</v>
-      </c>
-      <c r="M43" s="85">
-        <v>0.88580000000000003</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="S43" t="s">
+      <c r="B51" s="30">
+        <v>0.81230000000000002</v>
+      </c>
+      <c r="C51" s="128">
+        <f>(D51*$C$37+E51*$D$37+F51*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.75851690422900231</v>
+      </c>
+      <c r="D51" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="E51" s="31">
+        <v>0.79</v>
+      </c>
+      <c r="F51" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="G51" s="30">
+        <v>0.876</v>
+      </c>
+      <c r="H51" s="128">
+        <f>(I51*$C$37+J51*$D$37+K51*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81948521616209213</v>
+      </c>
+      <c r="I51" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="J51" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="K51" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="L51" s="30"/>
+      <c r="M51" s="128">
+        <f>(N51*$C$37+O51*$D$37+P51*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="30">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="R51" s="128">
+        <f>(S51*$C$37+T51*$D$37+U51*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.79522872737267836</v>
+      </c>
+      <c r="S51" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="T51" s="31">
+        <v>0.71</v>
+      </c>
+      <c r="U51" s="18">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="T43" s="86">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="U43" s="86">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="V43" s="87">
-        <v>0.34789999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="43">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="C44" s="61">
-        <v>0.87</v>
-      </c>
-      <c r="D44" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="E44" s="63">
+      <c r="B52" s="30">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="C52" s="128">
+        <f t="shared" ref="C52:C53" si="4">(D52*$C$37+E52*$D$37+F52*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81957081713590141</v>
+      </c>
+      <c r="D52" s="31">
         <v>0.86</v>
       </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="44"/>
-      <c r="K44" s="86">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="L44" s="86">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="M44" s="87">
-        <v>0.34789999999999999</v>
-      </c>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="S44" t="s">
+      <c r="E52" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="G52" s="30">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="H52" s="128">
+        <f t="shared" ref="H52:H53" si="5">(I52*$C$37+J52*$D$37+K52*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.83097027525817724</v>
+      </c>
+      <c r="I52" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="J52" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="K52" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="128">
+        <f t="shared" ref="M52:M53" si="6">(N52*$C$37+O52*$D$37+P52*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="30">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="R52" s="128">
+        <f t="shared" ref="R52:R53" si="7">(S52*$C$37+T52*$D$37+U52*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.83097027525817724</v>
+      </c>
+      <c r="S52" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="T52" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="U52" s="18">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="T44" s="1">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="U44" s="1">
-        <v>0.9677</v>
-      </c>
-      <c r="V44" s="1">
-        <v>0.40029999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="43">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="C45" s="43">
-        <v>0.85</v>
-      </c>
-      <c r="D45" s="43">
+      <c r="B53" s="55">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="C53" s="129">
+        <f t="shared" si="4"/>
+        <v>0.72800015706600696</v>
+      </c>
+      <c r="D53" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0.69</v>
+      </c>
+      <c r="G53" s="55"/>
+      <c r="H53" s="129" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" s="55"/>
+      <c r="M53" s="129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="55">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="R53" s="129">
+        <f t="shared" si="7"/>
+        <v>0.80242784780303922</v>
+      </c>
+      <c r="S53" s="25">
+        <v>0.82</v>
+      </c>
+      <c r="T53" s="25">
         <v>0.74</v>
       </c>
-      <c r="E45" s="24">
-        <v>0.73</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45" s="1">
-        <v>0.81720000000000004</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.91320000000000001</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A46" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="44">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="C46" s="44">
-        <v>0.78</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46"/>
-      <c r="K46" s="1">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.9677</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.40029999999999999</v>
-      </c>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="S46" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="T46" s="95"/>
-      <c r="U46" s="95"/>
-      <c r="V46" s="95"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47" s="1">
-        <v>0.63670000000000004</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.72419999999999995</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="S47" t="s">
-        <v>81</v>
-      </c>
-      <c r="T47" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="U47" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V47" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A48"/>
-      <c r="B48" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="111"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="S48" t="s">
-        <v>37</v>
-      </c>
-      <c r="T48" s="83">
-        <v>0.71279999999999999</v>
-      </c>
-      <c r="U48" s="82">
-        <v>0.73770000000000002</v>
-      </c>
-      <c r="V48" s="85">
-        <v>0.88580000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49"/>
-      <c r="B49" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="99"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="S49" t="s">
-        <v>38</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0.81720000000000004</v>
-      </c>
-      <c r="U49" s="1">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="V49" s="1">
-        <v>0.91320000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A50"/>
-      <c r="B50" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="110"/>
-      <c r="L50" s="110"/>
-      <c r="M50" s="111"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="S50" t="s">
-        <v>39</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0.63670000000000004</v>
-      </c>
-      <c r="U50" s="1">
-        <v>0.72419999999999995</v>
-      </c>
-      <c r="V50" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A51"/>
-      <c r="B51" s="43">
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="C51" s="62">
-        <v>0.8</v>
-      </c>
-      <c r="D51" s="62">
-        <v>0.69</v>
-      </c>
-      <c r="E51" s="64">
-        <v>0.73</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="K51" s="98"/>
-      <c r="L51" s="98"/>
-      <c r="M51" s="99"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A52"/>
-      <c r="B52" s="43">
-        <v>0.99570000000000003</v>
-      </c>
-      <c r="C52" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="D52" s="56">
-        <v>0.74</v>
-      </c>
-      <c r="E52" s="57">
-        <v>0.78</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="L52" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M52" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A53"/>
-      <c r="B53" s="44">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="C53" s="65">
-        <v>0.76</v>
-      </c>
-      <c r="D53" s="65">
-        <v>0.66</v>
-      </c>
-      <c r="E53" s="66">
-        <v>0.73</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" t="s">
-        <v>37</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="82">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="L53" s="83">
-        <v>0.90859999999999996</v>
-      </c>
-      <c r="M53" s="84">
-        <v>0.39860000000000001</v>
-      </c>
-      <c r="Q53"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U53" s="26">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -7100,226 +7367,414 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="83">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="L54" s="82">
-        <v>0.57850000000000001</v>
-      </c>
-      <c r="M54" s="85">
-        <v>0.91910000000000003</v>
-      </c>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="102"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="105"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="R57" s="104"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="104"/>
+      <c r="U57" s="105"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q58" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="R58" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="S58" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="U58" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A59" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="30">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="C59" s="128">
+        <f>(D59*$C$37+E59*$D$37+F59*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.8077983272470256</v>
+      </c>
+      <c r="D59" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="E59" s="31">
+        <v>0.69</v>
+      </c>
+      <c r="F59" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="G59" s="30">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="H59" s="128">
+        <f>(I59*$C$37+J59*$D$37+K59*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.80402913574429646</v>
+      </c>
+      <c r="I59" s="31">
+        <v>0.82</v>
+      </c>
+      <c r="J59" s="31">
+        <v>0.81</v>
+      </c>
+      <c r="K59" s="18">
+        <v>0.78</v>
+      </c>
+      <c r="L59" s="30">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M59" s="128">
+        <f>(N59*$C$37+O59*$D$37+P59*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.77971453253229661</v>
+      </c>
+      <c r="N59" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="O59" s="31">
+        <v>0.72</v>
+      </c>
+      <c r="P59" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="Q59" s="30">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="R59" s="128">
+        <f>(S59*$C$37+T59*$D$37+U59*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.800400518317823</v>
+      </c>
+      <c r="S59" s="31">
+        <v>0.84</v>
+      </c>
+      <c r="T59" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="U59" s="18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A60" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="44"/>
-      <c r="K55" s="82">
-        <v>0.84889999999999999</v>
-      </c>
-      <c r="L55" s="86">
-        <v>0.39779999999999999</v>
-      </c>
-      <c r="M55" s="87">
-        <v>0.55940000000000001</v>
-      </c>
-      <c r="Q55"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56"/>
-      <c r="K56" s="1">
-        <v>0.83109999999999995</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0.90129999999999999</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0.88839999999999997</v>
-      </c>
-      <c r="Q56"/>
-    </row>
-    <row r="57" spans="1:22" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57"/>
-      <c r="B57" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57"/>
-      <c r="H57" t="s">
+      <c r="B60" s="30">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="C60" s="128">
+        <f t="shared" ref="C60:C61" si="8">(D60*$C$37+E60*$D$37+F60*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81048611929163239</v>
+      </c>
+      <c r="D60" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="E60" s="31">
+        <v>0.76</v>
+      </c>
+      <c r="F60" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="G60" s="30">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="H60" s="128">
+        <f t="shared" ref="H60:H61" si="9">(I60*$C$37+J60*$D$37+K60*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81048611929163239</v>
+      </c>
+      <c r="I60" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="J60" s="31">
+        <v>0.76</v>
+      </c>
+      <c r="K60" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="L60" s="30">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="M60" s="128">
+        <f t="shared" ref="M60:M61" si="10">(N60*$C$37+O60*$D$37+P60*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81048611929163239</v>
+      </c>
+      <c r="N60" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="O60" s="31">
+        <v>0.76</v>
+      </c>
+      <c r="P60" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="Q60" s="30">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="R60" s="128">
+        <f t="shared" ref="R60:R61" si="11">(S60*$C$37+T60*$D$37+U60*$E$37)/($C$37+$D$37+$E$37)</f>
+        <v>0.81048611929163239</v>
+      </c>
+      <c r="S60" s="31">
+        <v>0.86</v>
+      </c>
+      <c r="T60" s="31">
+        <v>0.76</v>
+      </c>
+      <c r="U60" s="18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="Q57"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A58"/>
-      <c r="B58" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="22">
-        <v>0.87</v>
-      </c>
-      <c r="D58" s="22">
-        <v>0.76</v>
-      </c>
-      <c r="E58" s="22">
+      <c r="B61" s="55">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="C61" s="129">
+        <f t="shared" si="8"/>
+        <v>0.76720108375544827</v>
+      </c>
+      <c r="D61" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="E61" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0.73</v>
+      </c>
+      <c r="G61" s="55">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="H61" s="129">
+        <f t="shared" si="9"/>
+        <v>0.75708485491027611</v>
+      </c>
+      <c r="I61" s="25">
         <v>0.78</v>
       </c>
-      <c r="F58"/>
-      <c r="I58" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="Q58"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A59"/>
-      <c r="B59" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="22">
-        <v>0.88</v>
-      </c>
-      <c r="D59" s="22">
-        <v>0.78</v>
-      </c>
-      <c r="E59" s="22">
-        <v>0.86</v>
-      </c>
-      <c r="F59"/>
-      <c r="K59"/>
-      <c r="Q59"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="Q60"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A61"/>
-      <c r="B61" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="J61" s="44">
+        <v>0.68</v>
+      </c>
+      <c r="K61" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="L61" s="55">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="M61" s="129">
+        <f t="shared" si="10"/>
+        <v>0.7556272823654141</v>
+      </c>
+      <c r="N61" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="O61" s="25">
+        <v>0.64</v>
+      </c>
+      <c r="P61" s="26">
+        <v>0.73</v>
+      </c>
+      <c r="Q61" s="55">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="R61" s="129">
+        <f t="shared" si="11"/>
+        <v>0.75745788667687597</v>
+      </c>
+      <c r="S61" s="25">
+        <v>0.81</v>
+      </c>
+      <c r="T61" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="U61" s="26">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62"/>
-      <c r="B62" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C62" s="22">
-        <v>0.86</v>
-      </c>
-      <c r="D62" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="E62" s="22">
-        <v>0.81</v>
-      </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
       <c r="Q62"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63"/>
-      <c r="B63" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="22">
-        <v>0.85</v>
-      </c>
-      <c r="D63" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="E63" s="22">
-        <v>0.79</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
       <c r="Q63"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -7331,9 +7786,14 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -7345,9 +7805,14 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
       <c r="Q65"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -7359,11 +7824,14 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
-      <c r="L66" s="71"/>
-      <c r="N66" s="71"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -7373,14 +7841,21 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67" s="71"/>
-      <c r="N67" s="71"/>
+      <c r="J67" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="111"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A68"/>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -7389,117 +7864,290 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68" s="71"/>
-      <c r="N68" s="71"/>
+      <c r="J68" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="98"/>
+      <c r="L68" s="98"/>
+      <c r="M68" s="99"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
       <c r="Q68"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
+      <c r="S68" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="T68" s="95"/>
+      <c r="U68" s="95"/>
+      <c r="V68" s="95"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A69" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="110"/>
+      <c r="D69" s="110"/>
+      <c r="E69" s="111"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
+      <c r="J69" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
       <c r="Q69"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
+      <c r="S69" t="s">
+        <v>80</v>
+      </c>
+      <c r="T69" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U69" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V69" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A70" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
       <c r="F70"/>
       <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="81">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="L70" s="82">
+        <v>0.9516</v>
+      </c>
+      <c r="M70" s="83">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
       <c r="Q70"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
+      <c r="S70" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" s="81">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="U70" s="82">
+        <v>0.9516</v>
+      </c>
+      <c r="V70" s="83">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A71" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" s="43"/>
+      <c r="K71" s="82">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="L71" s="81">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="M71" s="84">
+        <v>0.88580000000000003</v>
+      </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
+      <c r="S71" t="s">
+        <v>38</v>
+      </c>
+      <c r="T71" s="85">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="U71" s="85">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="V71" s="86">
+        <v>0.34789999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="43">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="C72" s="61">
+        <v>0.87</v>
+      </c>
+      <c r="D72" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="E72" s="63">
+        <v>0.86</v>
+      </c>
       <c r="F72"/>
       <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="44"/>
+      <c r="K72" s="85">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="L72" s="85">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="M72" s="86">
+        <v>0.34789999999999999</v>
+      </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
+      <c r="S72" t="s">
+        <v>39</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0.40029999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A73" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="43">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="C73" s="43">
+        <v>0.85</v>
+      </c>
+      <c r="D73" s="43">
+        <v>0.74</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0.73</v>
+      </c>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
-      <c r="I73"/>
+      <c r="I73" t="s">
+        <v>6</v>
+      </c>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
+      <c r="K73" s="1">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.91320000000000001</v>
+      </c>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A74" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="44">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="C74" s="44">
+        <v>0.78</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
       <c r="F74"/>
       <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
       <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
+      <c r="K74" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.40029999999999999</v>
+      </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S74" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="T74" s="95"/>
+      <c r="U74" s="95"/>
+      <c r="V74" s="95"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -7508,22 +8156,44 @@
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
-      <c r="I75"/>
+      <c r="I75" t="s">
+        <v>6</v>
+      </c>
       <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
+      <c r="K75" s="1">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0.90900000000000003</v>
+      </c>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S75" t="s">
+        <v>81</v>
+      </c>
+      <c r="T75" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="U75" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="V75" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
+      <c r="B76" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="111"/>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
@@ -7536,13 +8206,27 @@
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" s="82">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="U76" s="81">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="V76" s="84">
+        <v>0.88580000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
+      <c r="B77" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="99"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
@@ -7555,80 +8239,154 @@
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S77" t="s">
+        <v>38</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0.91320000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
+      <c r="B78" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
+      <c r="J78" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78" s="110"/>
+      <c r="L78" s="110"/>
+      <c r="M78" s="111"/>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S78" t="s">
+        <v>39</v>
+      </c>
+      <c r="T78" s="1">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="U78" s="1">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="V78" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
+      <c r="B79" s="43">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="C79" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="D79" s="62">
+        <v>0.69</v>
+      </c>
+      <c r="E79" s="64">
+        <v>0.73</v>
+      </c>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
+      <c r="J79" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="99"/>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
+      <c r="B80" s="43">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="C80" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="D80" s="56">
+        <v>0.74</v>
+      </c>
+      <c r="E80" s="57">
+        <v>0.78</v>
+      </c>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
+      <c r="J80" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
+      <c r="B81" s="44">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="C81" s="65">
+        <v>0.76</v>
+      </c>
+      <c r="D81" s="65">
+        <v>0.66</v>
+      </c>
+      <c r="E81" s="66">
+        <v>0.73</v>
+      </c>
       <c r="F81"/>
       <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
+      <c r="H81" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="43"/>
+      <c r="K81" s="81">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="L81" s="82">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="M81" s="83">
+        <v>0.39860000000000001</v>
+      </c>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
@@ -7641,13 +8399,19 @@
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-      <c r="O82"/>
+      <c r="I82" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="43"/>
+      <c r="K82" s="82">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="L82" s="81">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="M82" s="84">
+        <v>0.91910000000000003</v>
+      </c>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
@@ -7659,14 +8423,22 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83"/>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="44"/>
+      <c r="K83" s="81">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="L83" s="85">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="M83" s="86">
+        <v>0.55940000000000001</v>
+      </c>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
@@ -7679,63 +8451,87 @@
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
-      <c r="I84"/>
+      <c r="I84" t="s">
+        <v>6</v>
+      </c>
       <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
+      <c r="K84" s="1">
+        <v>0.83109999999999995</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0.88839999999999997</v>
+      </c>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
+      <c r="B85" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
       <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
       <c r="Q85"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
+      <c r="B86" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" s="22">
+        <v>0.87</v>
+      </c>
+      <c r="D86" s="22">
+        <v>0.76</v>
+      </c>
+      <c r="E86" s="22">
+        <v>0.78</v>
+      </c>
       <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="I86" t="s">
+        <v>6</v>
+      </c>
       <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
+      <c r="B87" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="D87" s="22">
+        <v>0.78</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0.86</v>
+      </c>
       <c r="F87"/>
-      <c r="G87"/>
-      <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
@@ -7743,7 +8539,6 @@
       <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
-      <c r="P87"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.35">
@@ -7762,15 +8557,22 @@
       <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
-      <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
+      <c r="B89" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
@@ -7786,10 +8588,18 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
+      <c r="B90" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="22">
+        <v>0.86</v>
+      </c>
+      <c r="D90" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0.81</v>
+      </c>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
@@ -7800,15 +8610,22 @@
       <c r="M90"/>
       <c r="N90"/>
       <c r="O90"/>
-      <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
+      <c r="B91" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="D91" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="E91" s="22">
+        <v>0.79</v>
+      </c>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
@@ -7819,7 +8636,6 @@
       <c r="M91"/>
       <c r="N91"/>
       <c r="O91"/>
-      <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
@@ -14814,17 +15630,63 @@
       <c r="P459"/>
       <c r="Q459"/>
     </row>
+    <row r="460" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A460"/>
+      <c r="B460"/>
+      <c r="C460"/>
+      <c r="D460"/>
+      <c r="E460"/>
+      <c r="F460"/>
+      <c r="G460"/>
+      <c r="H460"/>
+      <c r="I460"/>
+      <c r="J460"/>
+      <c r="K460"/>
+      <c r="L460"/>
+      <c r="M460"/>
+      <c r="N460"/>
+      <c r="O460"/>
+      <c r="P460"/>
+      <c r="Q460"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
+  <mergeCells count="73">
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="L56:P56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="L57:P57"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="G57:K57"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="A55:Q55"/>
+    <mergeCell ref="A47:U47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="L48:P48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A39:U39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:U40"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="L49:P49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="S74:V74"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:M29"/>
@@ -14871,19 +15733,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="31"/>
-    <col min="5" max="5" width="9.1796875" style="18"/>
+    <col min="2" max="2" width="13.6328125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="18" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" style="30"/>
     <col min="7" max="7" width="9.1796875" style="31"/>
     <col min="8" max="8" width="9.1796875" style="18"/>
@@ -15558,6 +16420,723 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E24" s="27"/>
       <c r="H24" s="27"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="137">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D33" s="138">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="E33" s="137">
+        <f>D33-C33</f>
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="F33">
+        <v>104</v>
+      </c>
+      <c r="G33" s="137">
+        <f>E33/F33</f>
+        <v>3.9596688034188032E-3</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" s="137">
+        <f>(E33+E40+E47+E54)/(F33+F40+F47+F54)</f>
+        <v>4.1233766233766244E-3</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="136"/>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="137">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="D34" s="137">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="E34" s="137">
+        <f>D34-C34</f>
+        <v>8.5416666666666696E-2</v>
+      </c>
+      <c r="F34">
+        <v>139</v>
+      </c>
+      <c r="G34" s="137">
+        <f>E34/F34</f>
+        <v>6.1450839328537187E-4</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" s="137">
+        <f t="shared" ref="I34:I38" si="5">(E34+E41+E48+E55)/(F34+F41+F48+F55)</f>
+        <v>5.9358465608465609E-4</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="137">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="D35" s="138">
+        <v>5.4444444444444438</v>
+      </c>
+      <c r="E35" s="137">
+        <f>D35-C35</f>
+        <v>4.8256944444444434</v>
+      </c>
+      <c r="F35">
+        <v>138</v>
+      </c>
+      <c r="G35" s="137">
+        <f>E35/F35</f>
+        <v>3.4968800322061185E-2</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" s="137">
+        <f t="shared" si="5"/>
+        <v>3.3681384248210024E-2</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="137">
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="D36" s="137">
+        <v>1.1416666666666666</v>
+      </c>
+      <c r="E36" s="137">
+        <f>D36-C36</f>
+        <v>0.16041666666666654</v>
+      </c>
+      <c r="F36">
+        <v>139</v>
+      </c>
+      <c r="G36" s="137">
+        <f t="shared" ref="G36:G39" si="6">E36/F36</f>
+        <v>1.1540767386091118E-3</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" s="137">
+        <f t="shared" si="5"/>
+        <v>1.2929894179894174E-3</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137">
+        <f t="shared" ref="E37:E38" si="7">D37-C37</f>
+        <v>0</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" s="137"/>
+      <c r="H37"/>
+      <c r="I37" s="137" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="137"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" s="137"/>
+      <c r="H38"/>
+      <c r="I38" s="137" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F39"/>
+      <c r="G39" s="137"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="137">
+        <v>0.90138888888888891</v>
+      </c>
+      <c r="D40" s="138">
+        <v>1.2986111111111112</v>
+      </c>
+      <c r="E40" s="137">
+        <f>D40-C40</f>
+        <v>0.39722222222222225</v>
+      </c>
+      <c r="F40">
+        <v>142</v>
+      </c>
+      <c r="G40" s="137">
+        <f>E40/F40</f>
+        <v>2.7973395931142411E-3</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="137">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="D41" s="137">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="E41" s="137">
+        <f>D41-C41</f>
+        <v>8.1249999999999933E-2</v>
+      </c>
+      <c r="F41">
+        <v>142</v>
+      </c>
+      <c r="G41" s="137">
+        <f>E41/F41</f>
+        <v>5.7218309859154886E-4</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="137">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D42" s="138">
+        <v>5.4881944444444448</v>
+      </c>
+      <c r="E42" s="137">
+        <f>D42-C42</f>
+        <v>4.8458333333333341</v>
+      </c>
+      <c r="F42">
+        <v>142</v>
+      </c>
+      <c r="G42" s="137">
+        <f>E42/F42</f>
+        <v>3.4125586854460099E-2</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="137">
+        <v>0.98055555555555562</v>
+      </c>
+      <c r="D43" s="137">
+        <v>1.1416666666666666</v>
+      </c>
+      <c r="E43" s="137">
+        <f>D43-C43</f>
+        <v>0.16111111111111098</v>
+      </c>
+      <c r="F43">
+        <v>142</v>
+      </c>
+      <c r="G43" s="137">
+        <f t="shared" ref="G43" si="8">E43/F43</f>
+        <v>1.1345852895148661E-3</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="137"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137">
+        <f t="shared" ref="E44:E45" si="9">D44-C44</f>
+        <v>0</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44" s="137"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45" s="137"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="137">
+        <v>0.79027777777777775</v>
+      </c>
+      <c r="D47" s="138">
+        <v>1.0895833333333333</v>
+      </c>
+      <c r="E47" s="137">
+        <f>D47-C47</f>
+        <v>0.2993055555555556</v>
+      </c>
+      <c r="F47">
+        <v>71</v>
+      </c>
+      <c r="G47" s="137">
+        <f>E47/F47</f>
+        <v>4.2155712050078254E-3</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="137">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="D48" s="137">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="E48" s="137">
+        <f>D48-C48</f>
+        <v>2.8472222222222232E-2</v>
+      </c>
+      <c r="F48">
+        <v>71</v>
+      </c>
+      <c r="G48" s="137">
+        <f>E48/F48</f>
+        <v>4.0101721439749622E-4</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="137">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="D49" s="138">
+        <v>2.7993055555555557</v>
+      </c>
+      <c r="E49" s="137">
+        <f>D49-C49</f>
+        <v>1.8375000000000004</v>
+      </c>
+      <c r="F49">
+        <v>71</v>
+      </c>
+      <c r="G49" s="137">
+        <f>E49/F49</f>
+        <v>2.5880281690140849E-2</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="137">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D50" s="137">
+        <v>1.09375</v>
+      </c>
+      <c r="E50" s="137">
+        <f>D50-C50</f>
+        <v>0.1118055555555556</v>
+      </c>
+      <c r="F50">
+        <v>71</v>
+      </c>
+      <c r="G50" s="137">
+        <f t="shared" ref="G50" si="10">E50/F50</f>
+        <v>1.5747261345852902E-3</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137">
+        <f t="shared" ref="E51:E52" si="11">D51-C51</f>
+        <v>0</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51" s="137"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" s="137"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="137">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="D54" s="138">
+        <v>1.4152777777777779</v>
+      </c>
+      <c r="E54" s="137">
+        <f>D54-C54</f>
+        <v>0.47916666666666685</v>
+      </c>
+      <c r="F54">
+        <v>68</v>
+      </c>
+      <c r="G54" s="137">
+        <f>E54/F54</f>
+        <v>7.0465686274509831E-3</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="137">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D55" s="137">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="E55" s="137">
+        <f>D55-C55</f>
+        <v>5.4166666666666696E-2</v>
+      </c>
+      <c r="F55">
+        <v>68</v>
+      </c>
+      <c r="G55" s="137">
+        <f>E55/F55</f>
+        <v>7.9656862745098081E-4</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="137">
+        <v>0.64097222222222217</v>
+      </c>
+      <c r="D56" s="138">
+        <v>3.244444444444444</v>
+      </c>
+      <c r="E56" s="137">
+        <f>D56-C56</f>
+        <v>2.603472222222222</v>
+      </c>
+      <c r="F56">
+        <v>68</v>
+      </c>
+      <c r="G56" s="137">
+        <f>E56/F56</f>
+        <v>3.8286356209150323E-2</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="137">
+        <v>0.9819444444444444</v>
+      </c>
+      <c r="D57" s="137">
+        <v>1.0916666666666666</v>
+      </c>
+      <c r="E57" s="137">
+        <f>D57-C57</f>
+        <v>0.10972222222222217</v>
+      </c>
+      <c r="F57">
+        <v>68</v>
+      </c>
+      <c r="G57" s="137">
+        <f t="shared" ref="G57" si="12">E57/F57</f>
+        <v>1.6135620915032672E-3</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137">
+        <f t="shared" ref="E58:E59" si="13">D58-C58</f>
+        <v>0</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58" s="137"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59" s="137"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
